--- a/Example input/SoybeanInputs.xlsx
+++ b/Example input/SoybeanInputs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B425DB-8BAD-4D26-BC96-9C6F40C3144F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1A58C6-BD7E-4016-88D5-DF496F9D7804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3012" yWindow="2832" windowWidth="17280" windowHeight="9072" tabRatio="824" firstSheet="1" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1725" yWindow="570" windowWidth="25920" windowHeight="13425" tabRatio="824" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="5" r:id="rId1"/>
@@ -24,14 +24,16 @@
     <sheet name="Time" sheetId="4" r:id="rId14"/>
     <sheet name="Variety" sheetId="10" r:id="rId15"/>
     <sheet name="Weather" sheetId="7" r:id="rId16"/>
-    <sheet name="MulchDecomp" sheetId="18" r:id="rId17"/>
-    <sheet name="MulchGeo" sheetId="21" r:id="rId18"/>
+    <sheet name="WaterMovParam" sheetId="22" r:id="rId17"/>
+    <sheet name="MulchDecomp" sheetId="18" r:id="rId18"/>
+    <sheet name="MulchGeo" sheetId="21" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="GridX">#REF!</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="12" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="17" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="18" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="16" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -50,6 +52,117 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{42801ADA-F3D1-4267-8299-3071E0E702F2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+rate for sprinkler or ponding when ponded as a flow of water into the field
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{FB6D0D56-3A66-4CB0-886F-BE354725AC2C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+the target ponded depth for flow infil or constant depth</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{A2B8670E-8DE3-4DE3-BA0D-F261CE4FFE3D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+type can be:
+flood_H flooding as a depth of water
+flood_R flooding as a rate of water input
+sprinkler
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{305D5594-59EB-4051-BA04-4326A9572049}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+hour of day 0-23</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
@@ -83,7 +196,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
@@ -155,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
       <text>
         <r>
           <rPr>
@@ -235,7 +348,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="294">
   <si>
     <t>Date</t>
   </si>
@@ -480,9 +593,6 @@
     <t>NitrogenFile</t>
   </si>
   <si>
-    <t>CULI05.nit</t>
-  </si>
-  <si>
     <t>EPSI</t>
   </si>
   <si>
@@ -843,9 +953,6 @@
     <t>93B15.var</t>
   </si>
   <si>
-    <t>Ashland2005.wea</t>
-  </si>
-  <si>
     <t>Ill_Face_01</t>
   </si>
   <si>
@@ -1015,6 +1122,114 @@
   </si>
   <si>
     <t>ILL_FACES.soi</t>
+  </si>
+  <si>
+    <t>MaxIt</t>
+  </si>
+  <si>
+    <t>TolTh</t>
+  </si>
+  <si>
+    <t>TolH</t>
+  </si>
+  <si>
+    <t>hCritA</t>
+  </si>
+  <si>
+    <t>hCritS</t>
+  </si>
+  <si>
+    <t>DtMx</t>
+  </si>
+  <si>
+    <t>htab1</t>
+  </si>
+  <si>
+    <t>htabN</t>
+  </si>
+  <si>
+    <t>EPSI.Heat</t>
+  </si>
+  <si>
+    <t>EPSI.Solute</t>
+  </si>
+  <si>
+    <t>WaterMovDefault</t>
+  </si>
+  <si>
+    <t>N2O(ppm)</t>
+  </si>
+  <si>
+    <t>GasN2ODefault</t>
+  </si>
+  <si>
+    <t>Gas_N2O</t>
+  </si>
+  <si>
+    <t>WaterMovParam</t>
+  </si>
+  <si>
+    <t>Ill_Face.wea</t>
+  </si>
+  <si>
+    <t>IllFace.wea</t>
+  </si>
+  <si>
+    <t>IllFace.nit</t>
+  </si>
+  <si>
+    <t>there are 3 types of irrigation</t>
+  </si>
+  <si>
+    <t>flood_H</t>
+  </si>
+  <si>
+    <t>flooding by applying ponded water head</t>
+  </si>
+  <si>
+    <t>flood_R</t>
+  </si>
+  <si>
+    <t>flooding by applying a rate of water application over time</t>
+  </si>
+  <si>
+    <t>Sprinkler</t>
+  </si>
+  <si>
+    <t>overhead sprinkler</t>
+  </si>
+  <si>
+    <t>enter date_start and date_end, depth start_hour and end_hour and depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flood_R </t>
+  </si>
+  <si>
+    <t>enter date_start and date_end, depth start_hour and end_hour and amount</t>
+  </si>
+  <si>
+    <t>sprinkler</t>
+  </si>
+  <si>
+    <t>enter date start and amount</t>
+  </si>
+  <si>
+    <t>date_start</t>
+  </si>
+  <si>
+    <t>date_end</t>
+  </si>
+  <si>
+    <t>Depth (mm)</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>start_hour</t>
+  </si>
+  <si>
+    <t>end_hour</t>
   </si>
 </sst>
 </file>
@@ -1169,7 +1384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1208,23 +1423,12 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1560,37 +1764,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="5" width="19.109375" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="19.109375" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="18.109375" customWidth="1"/>
-    <col min="13" max="13" width="20.44140625" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
         <v>11</v>
@@ -1599,19 +1803,19 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H1" t="s">
         <v>23</v>
       </c>
       <c r="I1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J1" t="s">
         <v>24</v>
@@ -1620,155 +1824,173 @@
         <v>80</v>
       </c>
       <c r="L1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P1" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>228</v>
+      </c>
+      <c r="R1" t="s">
+        <v>229</v>
+      </c>
+      <c r="S1" t="s">
+        <v>271</v>
+      </c>
+      <c r="T1" t="s">
+        <v>230</v>
+      </c>
+      <c r="U1" t="s">
+        <v>272</v>
+      </c>
+      <c r="V1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="N1" t="s">
-        <v>110</v>
-      </c>
-      <c r="O1" t="s">
-        <v>160</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="O2" t="s">
         <v>161</v>
       </c>
-      <c r="Q1" t="s">
-        <v>230</v>
-      </c>
-      <c r="R1" t="s">
-        <v>231</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="P2" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q2" t="s">
         <v>232</v>
       </c>
-      <c r="T1" t="s">
+      <c r="R2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="S2" t="s">
+        <v>270</v>
+      </c>
+      <c r="T2" t="s">
+        <v>234</v>
+      </c>
+      <c r="U2" t="s">
+        <v>268</v>
+      </c>
+      <c r="V2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M2" t="s">
-        <v>203</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="O2" t="s">
-        <v>162</v>
-      </c>
-      <c r="P2" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" t="s">
+        <v>253</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="O3" t="s">
+        <v>161</v>
+      </c>
+      <c r="P3" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>232</v>
+      </c>
+      <c r="R3" t="s">
+        <v>233</v>
+      </c>
+      <c r="S3" t="s">
+        <v>270</v>
+      </c>
+      <c r="T3" t="s">
         <v>234</v>
       </c>
-      <c r="R2" t="s">
-        <v>235</v>
-      </c>
-      <c r="S2" t="s">
-        <v>236</v>
-      </c>
-      <c r="T2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M3" t="s">
-        <v>255</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="O3" t="s">
-        <v>162</v>
-      </c>
-      <c r="P3" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>234</v>
-      </c>
-      <c r="R3" t="s">
-        <v>235</v>
-      </c>
-      <c r="S3" t="s">
-        <v>236</v>
-      </c>
-      <c r="T3" t="s">
-        <v>229</v>
+      <c r="U3" t="s">
+        <v>268</v>
+      </c>
+      <c r="V3" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -1782,32 +2004,32 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="11" width="13" customWidth="1"/>
-    <col min="12" max="14" width="9.109375" style="6"/>
-    <col min="15" max="15" width="14.109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="30.77734375" customWidth="1"/>
-    <col min="19" max="19" width="22.5546875" customWidth="1"/>
+    <col min="12" max="14" width="9.140625" style="6"/>
+    <col min="15" max="15" width="14.140625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30.7109375" customWidth="1"/>
+    <col min="19" max="19" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>5</v>
@@ -1816,57 +2038,57 @@
         <v>6</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G1" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="J1" t="s">
         <v>166</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L1" t="s">
         <v>167</v>
       </c>
-      <c r="K1" t="s">
-        <v>220</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>168</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>219</v>
+      </c>
+      <c r="O1" t="s">
         <v>169</v>
       </c>
-      <c r="N1" t="s">
-        <v>221</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>170</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="R1" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="S1" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B2">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="C2">
         <v>42.18</v>
@@ -1892,7 +2114,7 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
@@ -1920,12 +2142,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B3">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="C3">
         <v>42.18</v>
@@ -1951,7 +2173,7 @@
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
@@ -1992,2550 +2214,2584 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AR212"/>
+  <dimension ref="A1:AS212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="20" customWidth="1"/>
-    <col min="2" max="11" width="14.6640625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" style="20" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" style="20" customWidth="1"/>
-    <col min="14" max="22" width="14.6640625" style="20" customWidth="1"/>
-    <col min="23" max="31" width="13" style="20" customWidth="1"/>
-    <col min="32" max="16384" width="8.88671875" style="20"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="14" max="23" width="14.7109375" customWidth="1"/>
+    <col min="24" max="32" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS1" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="21" t="s">
+      <c r="D2">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="F2">
+        <v>-1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>25</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>-100</v>
+      </c>
+      <c r="N2">
+        <v>23</v>
+      </c>
+      <c r="O2">
+        <v>400</v>
+      </c>
+      <c r="P2">
+        <v>20600</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>59</v>
+      </c>
+      <c r="S2">
+        <v>26.5</v>
+      </c>
+      <c r="T2">
+        <v>14.5</v>
+      </c>
+      <c r="U2">
+        <v>-1</v>
+      </c>
+      <c r="V2">
+        <v>-1</v>
+      </c>
+      <c r="W2">
+        <v>1.5734109999999997</v>
+      </c>
+      <c r="X2">
+        <v>-1</v>
+      </c>
+      <c r="Y2">
+        <v>-1</v>
+      </c>
+      <c r="Z2">
+        <v>-1</v>
+      </c>
+      <c r="AA2">
+        <v>-1</v>
+      </c>
+      <c r="AB2">
+        <v>-1</v>
+      </c>
+      <c r="AC2">
+        <v>-1</v>
+      </c>
+      <c r="AD2">
+        <v>16.13</v>
+      </c>
+      <c r="AE2">
+        <v>16.13</v>
+      </c>
+      <c r="AF2">
+        <v>-1</v>
+      </c>
+      <c r="AG2" s="8">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="AH2" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AI2" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AJ2" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="AK2" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="AL2">
+        <v>0.6</v>
+      </c>
+      <c r="AM2">
+        <v>0.2</v>
+      </c>
+      <c r="AN2">
+        <v>10</v>
+      </c>
+      <c r="AO2">
+        <v>50</v>
+      </c>
+      <c r="AP2">
+        <v>10</v>
+      </c>
+      <c r="AQ2">
+        <v>0.1</v>
+      </c>
+      <c r="AR2">
+        <v>8</v>
+      </c>
+      <c r="AS2" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <v>-1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>25</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>-100</v>
+      </c>
+      <c r="N3">
+        <v>23</v>
+      </c>
+      <c r="O3">
+        <v>400</v>
+      </c>
+      <c r="P3">
+        <v>20600</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>69.5</v>
+      </c>
+      <c r="S3">
+        <v>12.5</v>
+      </c>
+      <c r="T3">
         <v>18</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="U3">
+        <v>-1</v>
+      </c>
+      <c r="V3">
+        <v>-1</v>
+      </c>
+      <c r="W3">
+        <v>1.7234274999999999</v>
+      </c>
+      <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
+        <v>-1</v>
+      </c>
+      <c r="Z3">
+        <v>-1</v>
+      </c>
+      <c r="AA3">
+        <v>-1</v>
+      </c>
+      <c r="AB3">
+        <v>-1</v>
+      </c>
+      <c r="AC3">
+        <v>-1</v>
+      </c>
+      <c r="AD3">
+        <v>4.21</v>
+      </c>
+      <c r="AE3">
+        <v>4.21</v>
+      </c>
+      <c r="AF3">
+        <v>-1</v>
+      </c>
+      <c r="AG3" s="8">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="AH3" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AI3" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AJ3" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="AK3" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="AL3">
+        <v>0.6</v>
+      </c>
+      <c r="AM3">
+        <v>0.2</v>
+      </c>
+      <c r="AN3">
+        <v>10</v>
+      </c>
+      <c r="AO3">
+        <v>50</v>
+      </c>
+      <c r="AP3">
+        <v>10</v>
+      </c>
+      <c r="AQ3">
+        <v>0.1</v>
+      </c>
+      <c r="AR3">
+        <v>8</v>
+      </c>
+      <c r="AS3" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>132</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>-1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>25</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>-100</v>
+      </c>
+      <c r="N4">
+        <v>23</v>
+      </c>
+      <c r="O4">
+        <v>400</v>
+      </c>
+      <c r="P4">
+        <v>20600</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>57</v>
+      </c>
+      <c r="S4">
+        <v>20.5</v>
+      </c>
+      <c r="T4">
+        <v>22.5</v>
+      </c>
+      <c r="U4">
+        <v>-1</v>
+      </c>
+      <c r="V4">
+        <v>-1</v>
+      </c>
+      <c r="W4">
+        <v>1.6057675</v>
+      </c>
+      <c r="X4">
+        <v>-1</v>
+      </c>
+      <c r="Y4">
+        <v>-1</v>
+      </c>
+      <c r="Z4">
+        <v>-1</v>
+      </c>
+      <c r="AA4">
+        <v>-1</v>
+      </c>
+      <c r="AB4">
+        <v>-1</v>
+      </c>
+      <c r="AC4">
+        <v>-1</v>
+      </c>
+      <c r="AD4">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AE4">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AF4">
+        <v>-1</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="AH4" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AJ4" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="AK4" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="AL4">
+        <v>0.6</v>
+      </c>
+      <c r="AM4">
+        <v>0.2</v>
+      </c>
+      <c r="AN4">
+        <v>10</v>
+      </c>
+      <c r="AO4">
+        <v>50</v>
+      </c>
+      <c r="AP4">
+        <v>10</v>
+      </c>
+      <c r="AQ4">
+        <v>0.1</v>
+      </c>
+      <c r="AR4">
+        <v>8</v>
+      </c>
+      <c r="AS4" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>150</v>
+      </c>
+      <c r="C5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5">
+        <v>2E-3</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>25</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>-100</v>
+      </c>
+      <c r="N5">
+        <v>23</v>
+      </c>
+      <c r="O5">
+        <v>400</v>
+      </c>
+      <c r="P5">
+        <v>20600</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>55.5</v>
+      </c>
+      <c r="S5">
+        <v>26.5</v>
+      </c>
+      <c r="T5">
+        <v>18</v>
+      </c>
+      <c r="U5">
+        <v>-1</v>
+      </c>
+      <c r="V5">
+        <v>-1</v>
+      </c>
+      <c r="W5">
+        <v>1.5410544999999995</v>
+      </c>
+      <c r="X5">
+        <v>-1</v>
+      </c>
+      <c r="Y5">
+        <v>-1</v>
+      </c>
+      <c r="Z5">
+        <v>-1</v>
+      </c>
+      <c r="AA5">
+        <v>-1</v>
+      </c>
+      <c r="AB5">
+        <v>-1</v>
+      </c>
+      <c r="AC5">
+        <v>-1</v>
+      </c>
+      <c r="AD5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AE5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AF5">
+        <v>-1</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="AH5" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AI5" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AJ5" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="AK5" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="AL5">
+        <v>0.6</v>
+      </c>
+      <c r="AM5">
+        <v>0.2</v>
+      </c>
+      <c r="AN5">
+        <v>10</v>
+      </c>
+      <c r="AO5">
+        <v>50</v>
+      </c>
+      <c r="AP5">
+        <v>10</v>
+      </c>
+      <c r="AQ5">
+        <v>0.1</v>
+      </c>
+      <c r="AR5">
+        <v>8</v>
+      </c>
+      <c r="AS5" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" s="20">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="20">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="20">
+        <v>25</v>
+      </c>
+      <c r="L6" s="20">
+        <v>6</v>
+      </c>
+      <c r="M6" s="20">
+        <v>-100</v>
+      </c>
+      <c r="N6" s="20">
+        <v>25</v>
+      </c>
+      <c r="O6">
+        <v>400</v>
+      </c>
+      <c r="P6">
+        <v>20600</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="20">
+        <v>21</v>
+      </c>
+      <c r="S6" s="20">
+        <v>48</v>
+      </c>
+      <c r="T6" s="20">
+        <v>31</v>
+      </c>
+      <c r="U6" s="20">
+        <v>0.502</v>
+      </c>
+      <c r="V6" s="20">
+        <v>0.123</v>
+      </c>
+      <c r="W6" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="X6">
+        <v>-1</v>
+      </c>
+      <c r="Y6">
+        <v>-1</v>
+      </c>
+      <c r="Z6">
+        <v>-1</v>
+      </c>
+      <c r="AA6">
+        <v>-1</v>
+      </c>
+      <c r="AB6">
+        <v>-1</v>
+      </c>
+      <c r="AC6">
+        <v>-1</v>
+      </c>
+      <c r="AD6">
+        <v>16.13</v>
+      </c>
+      <c r="AE6">
+        <v>16.13</v>
+      </c>
+      <c r="AF6">
+        <v>-1</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="AH6" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AI6" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AJ6" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="AK6" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="AL6">
+        <v>0.6</v>
+      </c>
+      <c r="AM6">
+        <v>0.2</v>
+      </c>
+      <c r="AN6">
+        <v>10</v>
+      </c>
+      <c r="AO6">
+        <v>50</v>
+      </c>
+      <c r="AP6">
+        <v>10</v>
+      </c>
+      <c r="AQ6">
+        <v>0.1</v>
+      </c>
+      <c r="AR6">
+        <v>8</v>
+      </c>
+      <c r="AS6" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="20">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="20">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="20">
+        <v>25</v>
+      </c>
+      <c r="L7" s="20">
+        <v>6</v>
+      </c>
+      <c r="M7" s="20">
+        <v>-100</v>
+      </c>
+      <c r="N7" s="20">
+        <v>25</v>
+      </c>
+      <c r="O7">
+        <v>400</v>
+      </c>
+      <c r="P7">
+        <v>20600</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="20">
+        <v>50</v>
+      </c>
+      <c r="S7" s="20">
+        <v>31</v>
+      </c>
+      <c r="T7" s="20">
         <v>19</v>
       </c>
-      <c r="T1" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="U1" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="V1" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="X1" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y1" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z1" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA1" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB1" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC1" s="20" t="s">
+      <c r="U7" s="20">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="V7" s="20">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="W7" s="20">
+        <v>1.55</v>
+      </c>
+      <c r="X7">
+        <v>-1</v>
+      </c>
+      <c r="Y7">
+        <v>-1</v>
+      </c>
+      <c r="Z7">
+        <v>-1</v>
+      </c>
+      <c r="AA7">
+        <v>-1</v>
+      </c>
+      <c r="AB7">
+        <v>-1</v>
+      </c>
+      <c r="AC7">
+        <v>-1</v>
+      </c>
+      <c r="AD7">
+        <v>4.21</v>
+      </c>
+      <c r="AE7">
+        <v>4.21</v>
+      </c>
+      <c r="AF7">
+        <v>-1</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="AH7" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AI7" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AJ7" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="AK7" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="AL7">
+        <v>0.6</v>
+      </c>
+      <c r="AM7">
+        <v>0.2</v>
+      </c>
+      <c r="AN7">
+        <v>10</v>
+      </c>
+      <c r="AO7">
+        <v>50</v>
+      </c>
+      <c r="AP7">
+        <v>10</v>
+      </c>
+      <c r="AQ7">
+        <v>0.1</v>
+      </c>
+      <c r="AR7">
+        <v>8</v>
+      </c>
+      <c r="AS7" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" s="20">
         <v>132</v>
       </c>
-      <c r="AD1" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE1" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF1" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG1" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH1" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI1" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ1" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK1" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL1" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM1" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="AN1" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO1" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP1" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ1" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="AR1" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="C8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="20">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>-1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="20">
+        <v>25</v>
+      </c>
+      <c r="L8" s="20">
+        <v>6</v>
+      </c>
+      <c r="M8" s="20">
+        <v>-100</v>
+      </c>
+      <c r="N8" s="20">
+        <v>25</v>
+      </c>
+      <c r="O8">
+        <v>400</v>
+      </c>
+      <c r="P8">
+        <v>20600</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" s="20">
+        <v>50</v>
+      </c>
+      <c r="S8" s="20">
+        <v>31</v>
+      </c>
+      <c r="T8" s="20">
+        <v>19</v>
+      </c>
+      <c r="U8" s="20">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="V8" s="20">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="W8" s="20">
+        <v>1.55</v>
+      </c>
+      <c r="X8">
+        <v>-1</v>
+      </c>
+      <c r="Y8">
+        <v>-1</v>
+      </c>
+      <c r="Z8">
+        <v>-1</v>
+      </c>
+      <c r="AA8">
+        <v>-1</v>
+      </c>
+      <c r="AB8">
+        <v>-1</v>
+      </c>
+      <c r="AC8">
+        <v>-1</v>
+      </c>
+      <c r="AD8">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AE8">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AF8">
+        <v>-1</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="AH8" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AI8" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AJ8" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="AK8" s="8">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="AL8">
+        <v>0.6</v>
+      </c>
+      <c r="AM8">
+        <v>0.2</v>
+      </c>
+      <c r="AN8">
         <v>10</v>
       </c>
-      <c r="B2" s="20">
-        <v>12</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="20">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="E2" s="20">
-        <v>-1</v>
-      </c>
-      <c r="F2" s="20">
-        <v>-1</v>
-      </c>
-      <c r="G2" s="20">
-        <v>0</v>
-      </c>
-      <c r="H2" s="20">
-        <v>0</v>
-      </c>
-      <c r="I2" s="20">
-        <v>0</v>
-      </c>
-      <c r="J2" s="20">
-        <v>0</v>
-      </c>
-      <c r="K2" s="20">
+      <c r="AO8">
+        <v>50</v>
+      </c>
+      <c r="AP8">
+        <v>10</v>
+      </c>
+      <c r="AQ8">
+        <v>0.1</v>
+      </c>
+      <c r="AR8">
+        <v>8</v>
+      </c>
+      <c r="AS8" s="8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="20">
+        <v>150</v>
+      </c>
+      <c r="C9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="20">
+        <v>2E-3</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <v>-1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="20">
         <v>25</v>
       </c>
-      <c r="L2" s="20">
-        <v>0</v>
-      </c>
-      <c r="M2" s="20">
+      <c r="L9" s="20">
+        <v>6</v>
+      </c>
+      <c r="M9" s="20">
         <v>-100</v>
       </c>
-      <c r="N2" s="20">
-        <v>23</v>
-      </c>
-      <c r="O2" s="20">
+      <c r="N9" s="20">
+        <v>25</v>
+      </c>
+      <c r="O9">
         <v>400</v>
       </c>
-      <c r="P2" s="20">
+      <c r="P9">
         <v>20600</v>
       </c>
-      <c r="Q2" s="20">
-        <v>59</v>
-      </c>
-      <c r="R2" s="20">
-        <v>26.5</v>
-      </c>
-      <c r="S2" s="20">
-        <v>14.5</v>
-      </c>
-      <c r="T2" s="20">
-        <v>-1</v>
-      </c>
-      <c r="U2" s="20">
-        <v>-1</v>
-      </c>
-      <c r="V2" s="20">
-        <v>1.5734109999999997</v>
-      </c>
-      <c r="W2" s="20">
-        <v>-1</v>
-      </c>
-      <c r="X2" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Y2" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Z2" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AA2" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AB2" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AC2" s="20">
-        <v>16.13</v>
-      </c>
-      <c r="AD2" s="20">
-        <v>16.13</v>
-      </c>
-      <c r="AE2" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AF2" s="24">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="20">
+        <v>50</v>
+      </c>
+      <c r="S9" s="20">
+        <v>31</v>
+      </c>
+      <c r="T9" s="20">
+        <v>19</v>
+      </c>
+      <c r="U9" s="20">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="V9" s="20">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="W9" s="20">
+        <v>1.55</v>
+      </c>
+      <c r="X9">
+        <v>-1</v>
+      </c>
+      <c r="Y9">
+        <v>-1</v>
+      </c>
+      <c r="Z9">
+        <v>-1</v>
+      </c>
+      <c r="AA9">
+        <v>-1</v>
+      </c>
+      <c r="AB9">
+        <v>-1</v>
+      </c>
+      <c r="AC9">
+        <v>-1</v>
+      </c>
+      <c r="AD9">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AE9">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AF9">
+        <v>-1</v>
+      </c>
+      <c r="AG9" s="8">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="AG2" s="24">
+      <c r="AH9" s="8">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AH2" s="24">
+      <c r="AI9" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AI2" s="24">
+      <c r="AJ9" s="8">
         <v>0.2</v>
       </c>
-      <c r="AJ2" s="24">
+      <c r="AK9" s="8">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="AK2" s="20">
+      <c r="AL9">
         <v>0.6</v>
       </c>
-      <c r="AL2" s="20">
+      <c r="AM9">
         <v>0.2</v>
       </c>
-      <c r="AM2" s="20">
+      <c r="AN9">
         <v>10</v>
       </c>
-      <c r="AN2" s="20">
+      <c r="AO9">
         <v>50</v>
       </c>
-      <c r="AO2" s="20">
+      <c r="AP9">
         <v>10</v>
       </c>
-      <c r="AP2" s="20">
+      <c r="AQ9">
         <v>0.1</v>
       </c>
-      <c r="AQ2" s="20">
+      <c r="AR9">
         <v>8</v>
       </c>
-      <c r="AR2" s="24">
+      <c r="AS9" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="20">
-        <v>102</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="20">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="E3" s="20">
-        <v>-1</v>
-      </c>
-      <c r="F3" s="20">
-        <v>-1</v>
-      </c>
-      <c r="G3" s="20">
-        <v>0</v>
-      </c>
-      <c r="H3" s="20">
-        <v>0</v>
-      </c>
-      <c r="I3" s="20">
-        <v>0</v>
-      </c>
-      <c r="J3" s="20">
-        <v>0</v>
-      </c>
-      <c r="K3" s="20">
-        <v>25</v>
-      </c>
-      <c r="L3" s="20">
-        <v>0</v>
-      </c>
-      <c r="M3" s="20">
-        <v>-100</v>
-      </c>
-      <c r="N3" s="20">
-        <v>23</v>
-      </c>
-      <c r="O3" s="20">
-        <v>400</v>
-      </c>
-      <c r="P3" s="20">
-        <v>20600</v>
-      </c>
-      <c r="Q3" s="20">
-        <v>69.5</v>
-      </c>
-      <c r="R3" s="20">
-        <v>12.5</v>
-      </c>
-      <c r="S3" s="20">
-        <v>18</v>
-      </c>
-      <c r="T3" s="20">
-        <v>-1</v>
-      </c>
-      <c r="U3" s="20">
-        <v>-1</v>
-      </c>
-      <c r="V3" s="20">
-        <v>1.7234274999999999</v>
-      </c>
-      <c r="W3" s="20">
-        <v>-1</v>
-      </c>
-      <c r="X3" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Y3" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Z3" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AA3" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AB3" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AC3" s="20">
-        <v>4.21</v>
-      </c>
-      <c r="AD3" s="20">
-        <v>4.21</v>
-      </c>
-      <c r="AE3" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AF3" s="24">
-        <v>6.9999999999999994E-5</v>
-      </c>
-      <c r="AG3" s="24">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AH3" s="24">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AI3" s="24">
+    <row r="10" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AS10" s="8"/>
+    </row>
+    <row r="11" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AS11" s="8"/>
+    </row>
+    <row r="12" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AS12" s="8"/>
+    </row>
+    <row r="13" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AS13" s="8"/>
+    </row>
+    <row r="14" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AS14" s="8"/>
+    </row>
+    <row r="15" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AS15" s="8"/>
+    </row>
+    <row r="16" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AS16" s="8"/>
+    </row>
+    <row r="17" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8"/>
+      <c r="AS17" s="8"/>
+    </row>
+    <row r="18" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+      <c r="AS18" s="8"/>
+    </row>
+    <row r="19" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+      <c r="AS19" s="8"/>
+    </row>
+    <row r="20" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AS20" s="8"/>
+    </row>
+    <row r="21" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AS21" s="8"/>
+    </row>
+    <row r="22" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AS22" s="8"/>
+    </row>
+    <row r="23" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AS23" s="8"/>
+    </row>
+    <row r="24" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AS24" s="8"/>
+    </row>
+    <row r="25" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AS25" s="8"/>
+    </row>
+    <row r="26" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AS26" s="8"/>
+    </row>
+    <row r="27" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="8"/>
+      <c r="AS27" s="8"/>
+    </row>
+    <row r="28" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
+      <c r="AS28" s="8"/>
+    </row>
+    <row r="29" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="8"/>
+      <c r="AK29" s="8"/>
+      <c r="AS29" s="8"/>
+    </row>
+    <row r="30" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="8"/>
+      <c r="AS30" s="8"/>
+    </row>
+    <row r="31" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="8"/>
+      <c r="AK31" s="8"/>
+      <c r="AS31" s="8"/>
+    </row>
+    <row r="32" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8"/>
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="8"/>
+      <c r="AS32" s="8"/>
+    </row>
+    <row r="33" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="8"/>
+      <c r="AS33" s="8"/>
+    </row>
+    <row r="34" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="8"/>
+      <c r="AK34" s="8"/>
+      <c r="AS34" s="8"/>
+    </row>
+    <row r="35" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="8"/>
+      <c r="AK35" s="8"/>
+      <c r="AS35" s="8"/>
+    </row>
+    <row r="36" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="8"/>
+      <c r="AS36" s="8"/>
+    </row>
+    <row r="37" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="8"/>
+      <c r="AS37" s="8"/>
+    </row>
+    <row r="38" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8"/>
+      <c r="AK38" s="8"/>
+      <c r="AS38" s="8"/>
+    </row>
+    <row r="39" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="AG39" s="8"/>
+      <c r="AH39" s="8"/>
+      <c r="AI39" s="8"/>
+      <c r="AJ39" s="8"/>
+      <c r="AK39" s="8"/>
+      <c r="AS39" s="8"/>
+    </row>
+    <row r="40" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="AG40" s="8"/>
+      <c r="AH40" s="8"/>
+      <c r="AI40" s="8"/>
+      <c r="AJ40" s="8"/>
+      <c r="AK40" s="8"/>
+      <c r="AS40" s="8"/>
+    </row>
+    <row r="41" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="AG41" s="8"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="8"/>
+      <c r="AJ41" s="8"/>
+      <c r="AK41" s="8"/>
+      <c r="AS41" s="8"/>
+    </row>
+    <row r="42" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="AG42" s="8"/>
+      <c r="AH42" s="8"/>
+      <c r="AI42" s="8"/>
+      <c r="AJ42" s="8"/>
+      <c r="AK42" s="8"/>
+      <c r="AS42" s="8"/>
+    </row>
+    <row r="43" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="T43" s="22"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="22"/>
+      <c r="W43" s="6"/>
+      <c r="AG43" s="8"/>
+      <c r="AH43" s="8"/>
+      <c r="AI43" s="8"/>
+      <c r="AJ43" s="8"/>
+      <c r="AK43" s="8"/>
+      <c r="AS43" s="8"/>
+    </row>
+    <row r="44" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+      <c r="T44" s="22"/>
+      <c r="U44" s="22"/>
+      <c r="V44" s="22"/>
+      <c r="W44" s="6"/>
+      <c r="AG44" s="8"/>
+      <c r="AH44" s="8"/>
+      <c r="AI44" s="8"/>
+      <c r="AJ44" s="8"/>
+      <c r="AK44" s="8"/>
+      <c r="AS44" s="8"/>
+    </row>
+    <row r="45" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
+      <c r="T45" s="22"/>
+      <c r="U45" s="22"/>
+      <c r="V45" s="22"/>
+      <c r="W45" s="6"/>
+      <c r="AG45" s="8"/>
+      <c r="AH45" s="8"/>
+      <c r="AI45" s="8"/>
+      <c r="AJ45" s="8"/>
+      <c r="AK45" s="8"/>
+      <c r="AS45" s="8"/>
+    </row>
+    <row r="46" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
+      <c r="T46" s="22"/>
+      <c r="U46" s="22"/>
+      <c r="V46" s="22"/>
+      <c r="W46" s="6"/>
+      <c r="AG46" s="8"/>
+      <c r="AH46" s="8"/>
+      <c r="AI46" s="8"/>
+      <c r="AJ46" s="8"/>
+      <c r="AK46" s="8"/>
+      <c r="AS46" s="8"/>
+    </row>
+    <row r="47" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="22"/>
+      <c r="W47" s="6"/>
+      <c r="AG47" s="8"/>
+      <c r="AH47" s="8"/>
+      <c r="AI47" s="8"/>
+      <c r="AJ47" s="8"/>
+      <c r="AK47" s="8"/>
+      <c r="AS47" s="8"/>
+    </row>
+    <row r="48" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+      <c r="T48" s="22"/>
+      <c r="U48" s="22"/>
+      <c r="V48" s="22"/>
+      <c r="W48" s="6"/>
+      <c r="AG48" s="8"/>
+      <c r="AH48" s="8"/>
+      <c r="AI48" s="8"/>
+      <c r="AJ48" s="8"/>
+      <c r="AK48" s="8"/>
+      <c r="AS48" s="8"/>
+    </row>
+    <row r="49" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="22"/>
+      <c r="W49" s="6"/>
+      <c r="AG49" s="8"/>
+      <c r="AH49" s="8"/>
+      <c r="AI49" s="8"/>
+      <c r="AJ49" s="8"/>
+      <c r="AK49" s="8"/>
+      <c r="AS49" s="8"/>
+    </row>
+    <row r="50" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+      <c r="T50" s="22"/>
+      <c r="U50" s="22"/>
+      <c r="V50" s="22"/>
+      <c r="W50" s="6"/>
+      <c r="AG50" s="8"/>
+      <c r="AH50" s="8"/>
+      <c r="AI50" s="8"/>
+      <c r="AJ50" s="8"/>
+      <c r="AK50" s="8"/>
+      <c r="AS50" s="8"/>
+    </row>
+    <row r="51" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="M51" s="22"/>
+      <c r="T51" s="22"/>
+      <c r="U51" s="22"/>
+      <c r="V51" s="22"/>
+      <c r="AG51" s="8"/>
+      <c r="AH51" s="8"/>
+      <c r="AI51" s="8"/>
+      <c r="AJ51" s="8"/>
+      <c r="AK51" s="8"/>
+      <c r="AS51" s="8"/>
+    </row>
+    <row r="52" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="M52" s="22"/>
+      <c r="T52" s="22"/>
+      <c r="U52" s="22"/>
+      <c r="V52" s="22"/>
+      <c r="AG52" s="8"/>
+      <c r="AH52" s="8"/>
+      <c r="AI52" s="8"/>
+      <c r="AJ52" s="8"/>
+      <c r="AK52" s="8"/>
+      <c r="AS52" s="8"/>
+    </row>
+    <row r="53" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="M53" s="22"/>
+      <c r="T53" s="22"/>
+      <c r="U53" s="22"/>
+      <c r="V53" s="22"/>
+      <c r="AG53" s="8"/>
+      <c r="AH53" s="8"/>
+      <c r="AI53" s="8"/>
+      <c r="AJ53" s="8"/>
+      <c r="AK53" s="8"/>
+      <c r="AS53" s="8"/>
+    </row>
+    <row r="54" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+      <c r="M54" s="22"/>
+      <c r="T54" s="22"/>
+      <c r="U54" s="22"/>
+      <c r="V54" s="22"/>
+      <c r="AG54" s="8"/>
+      <c r="AH54" s="8"/>
+      <c r="AI54" s="8"/>
+      <c r="AJ54" s="8"/>
+      <c r="AK54" s="8"/>
+      <c r="AS54" s="8"/>
+    </row>
+    <row r="55" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="14"/>
+      <c r="M55" s="22"/>
+      <c r="T55" s="22"/>
+      <c r="U55" s="22"/>
+      <c r="V55" s="22"/>
+      <c r="AG55" s="8"/>
+      <c r="AH55" s="8"/>
+      <c r="AI55" s="8"/>
+      <c r="AJ55" s="8"/>
+      <c r="AK55" s="8"/>
+      <c r="AS55" s="8"/>
+    </row>
+    <row r="56" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="M56" s="22"/>
+      <c r="T56" s="22"/>
+      <c r="U56" s="22"/>
+      <c r="V56" s="22"/>
+      <c r="AG56" s="8"/>
+      <c r="AH56" s="8"/>
+      <c r="AI56" s="8"/>
+      <c r="AJ56" s="8"/>
+      <c r="AK56" s="8"/>
+      <c r="AS56" s="8"/>
+    </row>
+    <row r="57" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="M57" s="22"/>
+      <c r="T57" s="22"/>
+      <c r="U57" s="22"/>
+      <c r="V57" s="22"/>
+      <c r="AG57" s="8"/>
+      <c r="AH57" s="8"/>
+      <c r="AI57" s="8"/>
+      <c r="AJ57" s="8"/>
+      <c r="AK57" s="8"/>
+      <c r="AS57" s="8"/>
+    </row>
+    <row r="58" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="14"/>
+      <c r="M58" s="22"/>
+      <c r="T58" s="22"/>
+      <c r="U58" s="22"/>
+      <c r="V58" s="22"/>
+      <c r="AG58" s="8"/>
+      <c r="AH58" s="8"/>
+      <c r="AI58" s="8"/>
+      <c r="AJ58" s="8"/>
+      <c r="AK58" s="8"/>
+      <c r="AS58" s="8"/>
+    </row>
+    <row r="59" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="14"/>
+      <c r="AG59" s="8"/>
+      <c r="AH59" s="8"/>
+      <c r="AI59" s="8"/>
+      <c r="AJ59" s="8"/>
+      <c r="AK59" s="8"/>
+      <c r="AS59" s="8"/>
+    </row>
+    <row r="60" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="14"/>
+      <c r="AG60" s="8"/>
+      <c r="AH60" s="8"/>
+      <c r="AI60" s="8"/>
+      <c r="AJ60" s="8"/>
+      <c r="AK60" s="8"/>
+      <c r="AS60" s="8"/>
+    </row>
+    <row r="61" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="14"/>
+      <c r="AG61" s="8"/>
+      <c r="AH61" s="8"/>
+      <c r="AI61" s="8"/>
+      <c r="AJ61" s="8"/>
+      <c r="AK61" s="8"/>
+      <c r="AS61" s="8"/>
+    </row>
+    <row r="62" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="14"/>
+      <c r="AG62" s="8"/>
+      <c r="AH62" s="8"/>
+      <c r="AI62" s="8"/>
+      <c r="AJ62" s="8"/>
+      <c r="AK62" s="8"/>
+      <c r="AS62" s="8"/>
+    </row>
+    <row r="63" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="14"/>
+      <c r="AG63" s="8"/>
+      <c r="AH63" s="8"/>
+      <c r="AI63" s="8"/>
+      <c r="AJ63" s="8"/>
+      <c r="AK63" s="8"/>
+      <c r="AS63" s="8"/>
+    </row>
+    <row r="64" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="14"/>
+      <c r="AG64" s="8"/>
+      <c r="AH64" s="8"/>
+      <c r="AI64" s="8"/>
+      <c r="AJ64" s="8"/>
+      <c r="AK64" s="8"/>
+      <c r="AS64" s="8"/>
+    </row>
+    <row r="65" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="14"/>
+      <c r="AG65" s="8"/>
+      <c r="AH65" s="8"/>
+      <c r="AI65" s="8"/>
+      <c r="AJ65" s="8"/>
+      <c r="AK65" s="8"/>
+      <c r="AS65" s="8"/>
+    </row>
+    <row r="66" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="14"/>
+      <c r="AG66" s="8"/>
+      <c r="AH66" s="8"/>
+      <c r="AI66" s="8"/>
+      <c r="AJ66" s="8"/>
+      <c r="AK66" s="8"/>
+      <c r="AS66" s="8"/>
+    </row>
+    <row r="67" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="14"/>
+      <c r="AG67" s="8"/>
+      <c r="AH67" s="8"/>
+      <c r="AI67" s="8"/>
+      <c r="AJ67" s="8"/>
+      <c r="AK67" s="8"/>
+      <c r="AS67" s="8"/>
+    </row>
+    <row r="68" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="14"/>
+      <c r="AG68" s="8"/>
+      <c r="AH68" s="8"/>
+      <c r="AI68" s="8"/>
+      <c r="AJ68" s="8"/>
+      <c r="AK68" s="8"/>
+      <c r="AS68" s="8"/>
+    </row>
+    <row r="69" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="14"/>
+      <c r="AG69" s="8"/>
+      <c r="AH69" s="8"/>
+      <c r="AI69" s="8"/>
+      <c r="AJ69" s="8"/>
+      <c r="AK69" s="8"/>
+      <c r="AS69" s="8"/>
+    </row>
+    <row r="70" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="14"/>
+      <c r="AG70" s="8"/>
+      <c r="AH70" s="8"/>
+      <c r="AI70" s="8"/>
+      <c r="AJ70" s="8"/>
+      <c r="AK70" s="8"/>
+      <c r="AS70" s="8"/>
+    </row>
+    <row r="71" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="14"/>
+      <c r="AG71" s="8"/>
+      <c r="AH71" s="8"/>
+      <c r="AI71" s="8"/>
+      <c r="AJ71" s="8"/>
+      <c r="AK71" s="8"/>
+      <c r="AS71" s="8"/>
+    </row>
+    <row r="72" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="14"/>
+      <c r="AG72" s="8"/>
+      <c r="AH72" s="8"/>
+      <c r="AI72" s="8"/>
+      <c r="AJ72" s="8"/>
+      <c r="AK72" s="8"/>
+      <c r="AS72" s="8"/>
+    </row>
+    <row r="73" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="14"/>
+      <c r="AG73" s="8"/>
+      <c r="AH73" s="8"/>
+      <c r="AI73" s="8"/>
+      <c r="AJ73" s="8"/>
+      <c r="AK73" s="8"/>
+      <c r="AS73" s="8"/>
+    </row>
+    <row r="74" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="14"/>
+      <c r="AG74" s="8"/>
+      <c r="AH74" s="8"/>
+      <c r="AI74" s="8"/>
+      <c r="AJ74" s="8"/>
+      <c r="AK74" s="8"/>
+      <c r="AS74" s="8"/>
+    </row>
+    <row r="193" spans="24:32" x14ac:dyDescent="0.25">
+      <c r="X193">
+        <v>-1</v>
+      </c>
+      <c r="Y193">
+        <v>-1</v>
+      </c>
+      <c r="Z193">
+        <v>-1</v>
+      </c>
+      <c r="AA193">
+        <v>-1</v>
+      </c>
+      <c r="AB193">
+        <v>-1</v>
+      </c>
+      <c r="AC193">
+        <v>-1</v>
+      </c>
+      <c r="AD193">
         <v>0.2</v>
       </c>
-      <c r="AJ3" s="24">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="AK3" s="20">
-        <v>0.6</v>
-      </c>
-      <c r="AL3" s="20">
+      <c r="AE193">
         <v>0.2</v>
       </c>
-      <c r="AM3" s="20">
-        <v>10</v>
-      </c>
-      <c r="AN3" s="20">
-        <v>50</v>
-      </c>
-      <c r="AO3" s="20">
-        <v>10</v>
-      </c>
-      <c r="AP3" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="AQ3" s="20">
-        <v>8</v>
-      </c>
-      <c r="AR3" s="24">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="20">
-        <v>132</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="20">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E4" s="20">
-        <v>-1</v>
-      </c>
-      <c r="F4" s="20">
-        <v>-1</v>
-      </c>
-      <c r="G4" s="20">
-        <v>0</v>
-      </c>
-      <c r="H4" s="20">
-        <v>0</v>
-      </c>
-      <c r="I4" s="20">
-        <v>0</v>
-      </c>
-      <c r="J4" s="20">
-        <v>0</v>
-      </c>
-      <c r="K4" s="20">
-        <v>25</v>
-      </c>
-      <c r="L4" s="20">
-        <v>0</v>
-      </c>
-      <c r="M4" s="20">
-        <v>-100</v>
-      </c>
-      <c r="N4" s="20">
-        <v>23</v>
-      </c>
-      <c r="O4" s="20">
-        <v>400</v>
-      </c>
-      <c r="P4" s="20">
-        <v>20600</v>
-      </c>
-      <c r="Q4" s="20">
-        <v>57</v>
-      </c>
-      <c r="R4" s="20">
-        <v>20.5</v>
-      </c>
-      <c r="S4" s="20">
-        <v>22.5</v>
-      </c>
-      <c r="T4" s="20">
-        <v>-1</v>
-      </c>
-      <c r="U4" s="20">
-        <v>-1</v>
-      </c>
-      <c r="V4" s="20">
-        <v>1.6057675</v>
-      </c>
-      <c r="W4" s="20">
-        <v>-1</v>
-      </c>
-      <c r="X4" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Y4" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Z4" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AA4" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AB4" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AC4" s="20">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="AD4" s="20">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="AE4" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AF4" s="24">
-        <v>6.9999999999999994E-5</v>
-      </c>
-      <c r="AG4" s="24">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AH4" s="24">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AI4" s="24">
+      <c r="AF193">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="194" spans="24:32" x14ac:dyDescent="0.25">
+      <c r="X194">
+        <v>-1</v>
+      </c>
+      <c r="Y194">
+        <v>-1</v>
+      </c>
+      <c r="Z194">
+        <v>-1</v>
+      </c>
+      <c r="AA194">
+        <v>-1</v>
+      </c>
+      <c r="AB194">
+        <v>-1</v>
+      </c>
+      <c r="AC194">
+        <v>-1</v>
+      </c>
+      <c r="AD194">
         <v>0.2</v>
       </c>
-      <c r="AJ4" s="24">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="AK4" s="20">
-        <v>0.6</v>
-      </c>
-      <c r="AL4" s="20">
+      <c r="AE194">
         <v>0.2</v>
       </c>
-      <c r="AM4" s="20">
-        <v>10</v>
-      </c>
-      <c r="AN4" s="20">
-        <v>50</v>
-      </c>
-      <c r="AO4" s="20">
-        <v>10</v>
-      </c>
-      <c r="AP4" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="AQ4" s="20">
-        <v>8</v>
-      </c>
-      <c r="AR4" s="24">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="20">
-        <v>150</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="20">
-        <v>2E-3</v>
-      </c>
-      <c r="E5" s="20">
-        <v>-1</v>
-      </c>
-      <c r="F5" s="20">
-        <v>-1</v>
-      </c>
-      <c r="G5" s="20">
-        <v>0</v>
-      </c>
-      <c r="H5" s="20">
-        <v>0</v>
-      </c>
-      <c r="I5" s="20">
-        <v>0</v>
-      </c>
-      <c r="J5" s="20">
-        <v>0</v>
-      </c>
-      <c r="K5" s="20">
-        <v>25</v>
-      </c>
-      <c r="L5" s="20">
-        <v>0</v>
-      </c>
-      <c r="M5" s="20">
-        <v>-100</v>
-      </c>
-      <c r="N5" s="20">
-        <v>23</v>
-      </c>
-      <c r="O5" s="20">
-        <v>400</v>
-      </c>
-      <c r="P5" s="20">
-        <v>20600</v>
-      </c>
-      <c r="Q5" s="20">
-        <v>55.5</v>
-      </c>
-      <c r="R5" s="20">
-        <v>26.5</v>
-      </c>
-      <c r="S5" s="20">
-        <v>18</v>
-      </c>
-      <c r="T5" s="20">
-        <v>-1</v>
-      </c>
-      <c r="U5" s="20">
-        <v>-1</v>
-      </c>
-      <c r="V5" s="20">
-        <v>1.5410544999999995</v>
-      </c>
-      <c r="W5" s="20">
-        <v>-1</v>
-      </c>
-      <c r="X5" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Y5" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Z5" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AA5" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AB5" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AC5" s="20">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="AD5" s="20">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="AE5" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AF5" s="24">
-        <v>6.9999999999999994E-5</v>
-      </c>
-      <c r="AG5" s="24">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AH5" s="24">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AI5" s="24">
+      <c r="AF194">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="195" spans="24:32" x14ac:dyDescent="0.25">
+      <c r="X195">
+        <v>-1</v>
+      </c>
+      <c r="Y195">
+        <v>-1</v>
+      </c>
+      <c r="Z195">
+        <v>-1</v>
+      </c>
+      <c r="AA195">
+        <v>-1</v>
+      </c>
+      <c r="AB195">
+        <v>-1</v>
+      </c>
+      <c r="AC195">
+        <v>-1</v>
+      </c>
+      <c r="AD195">
         <v>0.2</v>
       </c>
-      <c r="AJ5" s="24">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="AK5" s="20">
-        <v>0.6</v>
-      </c>
-      <c r="AL5" s="20">
+      <c r="AE195">
         <v>0.2</v>
       </c>
-      <c r="AM5" s="20">
-        <v>10</v>
-      </c>
-      <c r="AN5" s="20">
-        <v>50</v>
-      </c>
-      <c r="AO5" s="20">
-        <v>10</v>
-      </c>
-      <c r="AP5" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="AQ5" s="20">
-        <v>8</v>
-      </c>
-      <c r="AR5" s="24">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="B6" s="25">
-        <v>12</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6" s="25">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="E6" s="20">
-        <v>-1</v>
-      </c>
-      <c r="F6" s="20">
-        <v>-1</v>
-      </c>
-      <c r="G6" s="20">
-        <v>0</v>
-      </c>
-      <c r="H6" s="20">
-        <v>0</v>
-      </c>
-      <c r="I6" s="20">
-        <v>0</v>
-      </c>
-      <c r="J6" s="20">
-        <v>0</v>
-      </c>
-      <c r="K6" s="25">
-        <v>25</v>
-      </c>
-      <c r="L6" s="25">
-        <v>6</v>
-      </c>
-      <c r="M6" s="25">
-        <v>-100</v>
-      </c>
-      <c r="N6" s="25">
-        <v>25</v>
-      </c>
-      <c r="O6" s="20">
-        <v>400</v>
-      </c>
-      <c r="P6" s="20">
-        <v>20600</v>
-      </c>
-      <c r="Q6" s="25">
-        <v>21</v>
-      </c>
-      <c r="R6" s="25">
-        <v>48</v>
-      </c>
-      <c r="S6" s="25">
-        <v>31</v>
-      </c>
-      <c r="T6" s="25">
-        <v>0.502</v>
-      </c>
-      <c r="U6" s="25">
-        <v>0.123</v>
-      </c>
-      <c r="V6" s="25">
-        <v>1.2</v>
-      </c>
-      <c r="W6" s="20">
-        <v>-1</v>
-      </c>
-      <c r="X6" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Y6" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Z6" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AA6" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AB6" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AC6" s="20">
-        <v>16.13</v>
-      </c>
-      <c r="AD6" s="20">
-        <v>16.13</v>
-      </c>
-      <c r="AE6" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AF6" s="24">
-        <v>6.9999999999999994E-5</v>
-      </c>
-      <c r="AG6" s="24">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AH6" s="24">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AI6" s="24">
+      <c r="AF195">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="196" spans="24:32" x14ac:dyDescent="0.25">
+      <c r="X196">
+        <v>-1</v>
+      </c>
+      <c r="Y196">
+        <v>-1</v>
+      </c>
+      <c r="Z196">
+        <v>-1</v>
+      </c>
+      <c r="AA196">
+        <v>-1</v>
+      </c>
+      <c r="AB196">
+        <v>-1</v>
+      </c>
+      <c r="AC196">
+        <v>-1</v>
+      </c>
+      <c r="AD196">
         <v>0.2</v>
       </c>
-      <c r="AJ6" s="24">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="AK6" s="20">
-        <v>0.6</v>
-      </c>
-      <c r="AL6" s="20">
+      <c r="AE196">
         <v>0.2</v>
       </c>
-      <c r="AM6" s="20">
-        <v>10</v>
-      </c>
-      <c r="AN6" s="20">
-        <v>50</v>
-      </c>
-      <c r="AO6" s="20">
-        <v>10</v>
-      </c>
-      <c r="AP6" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="AQ6" s="20">
-        <v>8</v>
-      </c>
-      <c r="AR6" s="24">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="B7" s="25">
-        <v>102</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="25">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="E7" s="20">
-        <v>-1</v>
-      </c>
-      <c r="F7" s="20">
-        <v>-1</v>
-      </c>
-      <c r="G7" s="20">
-        <v>0</v>
-      </c>
-      <c r="H7" s="20">
-        <v>0</v>
-      </c>
-      <c r="I7" s="20">
-        <v>0</v>
-      </c>
-      <c r="J7" s="20">
-        <v>0</v>
-      </c>
-      <c r="K7" s="25">
-        <v>25</v>
-      </c>
-      <c r="L7" s="25">
-        <v>6</v>
-      </c>
-      <c r="M7" s="25">
-        <v>-100</v>
-      </c>
-      <c r="N7" s="25">
-        <v>25</v>
-      </c>
-      <c r="O7" s="20">
-        <v>400</v>
-      </c>
-      <c r="P7" s="20">
-        <v>20600</v>
-      </c>
-      <c r="Q7" s="25">
-        <v>50</v>
-      </c>
-      <c r="R7" s="25">
-        <v>31</v>
-      </c>
-      <c r="S7" s="25">
-        <v>19</v>
-      </c>
-      <c r="T7" s="25">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="U7" s="25">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="V7" s="25">
-        <v>1.55</v>
-      </c>
-      <c r="W7" s="20">
-        <v>-1</v>
-      </c>
-      <c r="X7" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Y7" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Z7" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AA7" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AB7" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AC7" s="20">
-        <v>4.21</v>
-      </c>
-      <c r="AD7" s="20">
-        <v>4.21</v>
-      </c>
-      <c r="AE7" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AF7" s="24">
-        <v>6.9999999999999994E-5</v>
-      </c>
-      <c r="AG7" s="24">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AH7" s="24">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AI7" s="24">
+      <c r="AF196">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="197" spans="24:32" x14ac:dyDescent="0.25">
+      <c r="X197">
+        <v>-1</v>
+      </c>
+      <c r="Y197">
+        <v>-1</v>
+      </c>
+      <c r="Z197">
+        <v>-1</v>
+      </c>
+      <c r="AA197">
+        <v>-1</v>
+      </c>
+      <c r="AB197">
+        <v>-1</v>
+      </c>
+      <c r="AC197">
+        <v>-1</v>
+      </c>
+      <c r="AD197">
         <v>0.2</v>
       </c>
-      <c r="AJ7" s="24">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="AK7" s="20">
-        <v>0.6</v>
-      </c>
-      <c r="AL7" s="20">
+      <c r="AE197">
         <v>0.2</v>
       </c>
-      <c r="AM7" s="20">
-        <v>10</v>
-      </c>
-      <c r="AN7" s="20">
-        <v>50</v>
-      </c>
-      <c r="AO7" s="20">
-        <v>10</v>
-      </c>
-      <c r="AP7" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="AQ7" s="20">
-        <v>8</v>
-      </c>
-      <c r="AR7" s="24">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="B8" s="25">
-        <v>132</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="25">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E8" s="20">
-        <v>-1</v>
-      </c>
-      <c r="F8" s="20">
-        <v>-1</v>
-      </c>
-      <c r="G8" s="20">
-        <v>0</v>
-      </c>
-      <c r="H8" s="20">
-        <v>0</v>
-      </c>
-      <c r="I8" s="20">
-        <v>0</v>
-      </c>
-      <c r="J8" s="20">
-        <v>0</v>
-      </c>
-      <c r="K8" s="25">
-        <v>25</v>
-      </c>
-      <c r="L8" s="25">
-        <v>6</v>
-      </c>
-      <c r="M8" s="25">
-        <v>-100</v>
-      </c>
-      <c r="N8" s="25">
-        <v>25</v>
-      </c>
-      <c r="O8" s="20">
-        <v>400</v>
-      </c>
-      <c r="P8" s="20">
-        <v>20600</v>
-      </c>
-      <c r="Q8" s="25">
-        <v>50</v>
-      </c>
-      <c r="R8" s="25">
-        <v>31</v>
-      </c>
-      <c r="S8" s="25">
-        <v>19</v>
-      </c>
-      <c r="T8" s="25">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="U8" s="25">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="V8" s="25">
-        <v>1.55</v>
-      </c>
-      <c r="W8" s="20">
-        <v>-1</v>
-      </c>
-      <c r="X8" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Y8" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Z8" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AA8" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AB8" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AC8" s="20">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="AD8" s="20">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="AE8" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AF8" s="24">
-        <v>6.9999999999999994E-5</v>
-      </c>
-      <c r="AG8" s="24">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AH8" s="24">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AI8" s="24">
+      <c r="AF197">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="198" spans="24:32" x14ac:dyDescent="0.25">
+      <c r="X198">
+        <v>-1</v>
+      </c>
+      <c r="Y198">
+        <v>-1</v>
+      </c>
+      <c r="Z198">
+        <v>-1</v>
+      </c>
+      <c r="AA198">
+        <v>-1</v>
+      </c>
+      <c r="AB198">
+        <v>-1</v>
+      </c>
+      <c r="AC198">
+        <v>-1</v>
+      </c>
+      <c r="AD198">
         <v>0.2</v>
       </c>
-      <c r="AJ8" s="24">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="AK8" s="20">
-        <v>0.6</v>
-      </c>
-      <c r="AL8" s="20">
+      <c r="AE198">
         <v>0.2</v>
       </c>
-      <c r="AM8" s="20">
-        <v>10</v>
-      </c>
-      <c r="AN8" s="20">
-        <v>50</v>
-      </c>
-      <c r="AO8" s="20">
-        <v>10</v>
-      </c>
-      <c r="AP8" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="AQ8" s="20">
-        <v>8</v>
-      </c>
-      <c r="AR8" s="24">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="B9" s="25">
-        <v>150</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="25">
-        <v>2E-3</v>
-      </c>
-      <c r="E9" s="20">
-        <v>-1</v>
-      </c>
-      <c r="F9" s="20">
-        <v>-1</v>
-      </c>
-      <c r="G9" s="20">
-        <v>0</v>
-      </c>
-      <c r="H9" s="20">
-        <v>0</v>
-      </c>
-      <c r="I9" s="20">
-        <v>0</v>
-      </c>
-      <c r="J9" s="20">
-        <v>0</v>
-      </c>
-      <c r="K9" s="25">
-        <v>25</v>
-      </c>
-      <c r="L9" s="25">
-        <v>6</v>
-      </c>
-      <c r="M9" s="25">
-        <v>-100</v>
-      </c>
-      <c r="N9" s="25">
-        <v>25</v>
-      </c>
-      <c r="O9" s="20">
-        <v>400</v>
-      </c>
-      <c r="P9" s="20">
-        <v>20600</v>
-      </c>
-      <c r="Q9" s="25">
-        <v>50</v>
-      </c>
-      <c r="R9" s="25">
-        <v>31</v>
-      </c>
-      <c r="S9" s="25">
-        <v>19</v>
-      </c>
-      <c r="T9" s="25">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="U9" s="25">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="V9" s="25">
-        <v>1.55</v>
-      </c>
-      <c r="W9" s="20">
-        <v>-1</v>
-      </c>
-      <c r="X9" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Y9" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Z9" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AA9" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AB9" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AC9" s="20">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="AD9" s="20">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="AE9" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AF9" s="24">
-        <v>6.9999999999999994E-5</v>
-      </c>
-      <c r="AG9" s="24">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="AH9" s="24">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AI9" s="24">
+      <c r="AF198">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="199" spans="24:32" x14ac:dyDescent="0.25">
+      <c r="X199">
+        <v>-1</v>
+      </c>
+      <c r="Y199">
+        <v>-1</v>
+      </c>
+      <c r="Z199">
+        <v>-1</v>
+      </c>
+      <c r="AA199">
+        <v>-1</v>
+      </c>
+      <c r="AB199">
+        <v>-1</v>
+      </c>
+      <c r="AC199">
+        <v>-1</v>
+      </c>
+      <c r="AD199">
         <v>0.2</v>
       </c>
-      <c r="AJ9" s="24">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="AK9" s="20">
-        <v>0.6</v>
-      </c>
-      <c r="AL9" s="20">
+      <c r="AE199">
         <v>0.2</v>
       </c>
-      <c r="AM9" s="20">
-        <v>10</v>
-      </c>
-      <c r="AN9" s="20">
-        <v>50</v>
-      </c>
-      <c r="AO9" s="20">
-        <v>10</v>
-      </c>
-      <c r="AP9" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="AQ9" s="20">
-        <v>8</v>
-      </c>
-      <c r="AR9" s="24">
-        <v>1.0000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="24"/>
-      <c r="AH10" s="24"/>
-      <c r="AI10" s="24"/>
-      <c r="AJ10" s="24"/>
-      <c r="AR10" s="24"/>
-    </row>
-    <row r="11" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="AF11" s="24"/>
-      <c r="AG11" s="24"/>
-      <c r="AH11" s="24"/>
-      <c r="AI11" s="24"/>
-      <c r="AJ11" s="24"/>
-      <c r="AR11" s="24"/>
-    </row>
-    <row r="12" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="AF12" s="24"/>
-      <c r="AG12" s="24"/>
-      <c r="AH12" s="24"/>
-      <c r="AI12" s="24"/>
-      <c r="AJ12" s="24"/>
-      <c r="AR12" s="24"/>
-    </row>
-    <row r="13" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="24"/>
-      <c r="AH13" s="24"/>
-      <c r="AI13" s="24"/>
-      <c r="AJ13" s="24"/>
-      <c r="AR13" s="24"/>
-    </row>
-    <row r="14" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="AF14" s="24"/>
-      <c r="AG14" s="24"/>
-      <c r="AH14" s="24"/>
-      <c r="AI14" s="24"/>
-      <c r="AJ14" s="24"/>
-      <c r="AR14" s="24"/>
-    </row>
-    <row r="15" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="AF15" s="24"/>
-      <c r="AG15" s="24"/>
-      <c r="AH15" s="24"/>
-      <c r="AI15" s="24"/>
-      <c r="AJ15" s="24"/>
-      <c r="AR15" s="24"/>
-    </row>
-    <row r="16" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="AF16" s="24"/>
-      <c r="AG16" s="24"/>
-      <c r="AH16" s="24"/>
-      <c r="AI16" s="24"/>
-      <c r="AJ16" s="24"/>
-      <c r="AR16" s="24"/>
-    </row>
-    <row r="17" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="AF17" s="24"/>
-      <c r="AG17" s="24"/>
-      <c r="AH17" s="24"/>
-      <c r="AI17" s="24"/>
-      <c r="AJ17" s="24"/>
-      <c r="AR17" s="24"/>
-    </row>
-    <row r="18" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="AF18" s="24"/>
-      <c r="AG18" s="24"/>
-      <c r="AH18" s="24"/>
-      <c r="AI18" s="24"/>
-      <c r="AJ18" s="24"/>
-      <c r="AR18" s="24"/>
-    </row>
-    <row r="19" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="24"/>
-      <c r="AH19" s="24"/>
-      <c r="AI19" s="24"/>
-      <c r="AJ19" s="24"/>
-      <c r="AR19" s="24"/>
-    </row>
-    <row r="20" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="AF20" s="24"/>
-      <c r="AG20" s="24"/>
-      <c r="AH20" s="24"/>
-      <c r="AI20" s="24"/>
-      <c r="AJ20" s="24"/>
-      <c r="AR20" s="24"/>
-    </row>
-    <row r="21" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
-      <c r="AF21" s="24"/>
-      <c r="AG21" s="24"/>
-      <c r="AH21" s="24"/>
-      <c r="AI21" s="24"/>
-      <c r="AJ21" s="24"/>
-      <c r="AR21" s="24"/>
-    </row>
-    <row r="22" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
-      <c r="AF22" s="24"/>
-      <c r="AG22" s="24"/>
-      <c r="AH22" s="24"/>
-      <c r="AI22" s="24"/>
-      <c r="AJ22" s="24"/>
-      <c r="AR22" s="24"/>
-    </row>
-    <row r="23" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
-      <c r="AF23" s="24"/>
-      <c r="AG23" s="24"/>
-      <c r="AH23" s="24"/>
-      <c r="AI23" s="24"/>
-      <c r="AJ23" s="24"/>
-      <c r="AR23" s="24"/>
-    </row>
-    <row r="24" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
-      <c r="AF24" s="24"/>
-      <c r="AG24" s="24"/>
-      <c r="AH24" s="24"/>
-      <c r="AI24" s="24"/>
-      <c r="AJ24" s="24"/>
-      <c r="AR24" s="24"/>
-    </row>
-    <row r="25" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
-      <c r="AF25" s="24"/>
-      <c r="AG25" s="24"/>
-      <c r="AH25" s="24"/>
-      <c r="AI25" s="24"/>
-      <c r="AJ25" s="24"/>
-      <c r="AR25" s="24"/>
-    </row>
-    <row r="26" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
-      <c r="AF26" s="24"/>
-      <c r="AG26" s="24"/>
-      <c r="AH26" s="24"/>
-      <c r="AI26" s="24"/>
-      <c r="AJ26" s="24"/>
-      <c r="AR26" s="24"/>
-    </row>
-    <row r="27" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
-      <c r="AF27" s="24"/>
-      <c r="AG27" s="24"/>
-      <c r="AH27" s="24"/>
-      <c r="AI27" s="24"/>
-      <c r="AJ27" s="24"/>
-      <c r="AR27" s="24"/>
-    </row>
-    <row r="28" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
-      <c r="AF28" s="24"/>
-      <c r="AG28" s="24"/>
-      <c r="AH28" s="24"/>
-      <c r="AI28" s="24"/>
-      <c r="AJ28" s="24"/>
-      <c r="AR28" s="24"/>
-    </row>
-    <row r="29" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
-      <c r="AF29" s="24"/>
-      <c r="AG29" s="24"/>
-      <c r="AH29" s="24"/>
-      <c r="AI29" s="24"/>
-      <c r="AJ29" s="24"/>
-      <c r="AR29" s="24"/>
-    </row>
-    <row r="30" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
-      <c r="AF30" s="24"/>
-      <c r="AG30" s="24"/>
-      <c r="AH30" s="24"/>
-      <c r="AI30" s="24"/>
-      <c r="AJ30" s="24"/>
-      <c r="AR30" s="24"/>
-    </row>
-    <row r="31" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
-      <c r="AF31" s="24"/>
-      <c r="AG31" s="24"/>
-      <c r="AH31" s="24"/>
-      <c r="AI31" s="24"/>
-      <c r="AJ31" s="24"/>
-      <c r="AR31" s="24"/>
-    </row>
-    <row r="32" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
-      <c r="AF32" s="24"/>
-      <c r="AG32" s="24"/>
-      <c r="AH32" s="24"/>
-      <c r="AI32" s="24"/>
-      <c r="AJ32" s="24"/>
-      <c r="AR32" s="24"/>
-    </row>
-    <row r="33" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
-      <c r="AF33" s="24"/>
-      <c r="AG33" s="24"/>
-      <c r="AH33" s="24"/>
-      <c r="AI33" s="24"/>
-      <c r="AJ33" s="24"/>
-      <c r="AR33" s="24"/>
-    </row>
-    <row r="34" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
-      <c r="AF34" s="24"/>
-      <c r="AG34" s="24"/>
-      <c r="AH34" s="24"/>
-      <c r="AI34" s="24"/>
-      <c r="AJ34" s="24"/>
-      <c r="AR34" s="24"/>
-    </row>
-    <row r="35" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
-      <c r="AF35" s="24"/>
-      <c r="AG35" s="24"/>
-      <c r="AH35" s="24"/>
-      <c r="AI35" s="24"/>
-      <c r="AJ35" s="24"/>
-      <c r="AR35" s="24"/>
-    </row>
-    <row r="36" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
-      <c r="AF36" s="24"/>
-      <c r="AG36" s="24"/>
-      <c r="AH36" s="24"/>
-      <c r="AI36" s="24"/>
-      <c r="AJ36" s="24"/>
-      <c r="AR36" s="24"/>
-    </row>
-    <row r="37" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
-      <c r="AF37" s="24"/>
-      <c r="AG37" s="24"/>
-      <c r="AH37" s="24"/>
-      <c r="AI37" s="24"/>
-      <c r="AJ37" s="24"/>
-      <c r="AR37" s="24"/>
-    </row>
-    <row r="38" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
-      <c r="AF38" s="24"/>
-      <c r="AG38" s="24"/>
-      <c r="AH38" s="24"/>
-      <c r="AI38" s="24"/>
-      <c r="AJ38" s="24"/>
-      <c r="AR38" s="24"/>
-    </row>
-    <row r="39" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
-      <c r="AF39" s="24"/>
-      <c r="AG39" s="24"/>
-      <c r="AH39" s="24"/>
-      <c r="AI39" s="24"/>
-      <c r="AJ39" s="24"/>
-      <c r="AR39" s="24"/>
-    </row>
-    <row r="40" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="23"/>
-      <c r="AF40" s="24"/>
-      <c r="AG40" s="24"/>
-      <c r="AH40" s="24"/>
-      <c r="AI40" s="24"/>
-      <c r="AJ40" s="24"/>
-      <c r="AR40" s="24"/>
-    </row>
-    <row r="41" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
-      <c r="AF41" s="24"/>
-      <c r="AG41" s="24"/>
-      <c r="AH41" s="24"/>
-      <c r="AI41" s="24"/>
-      <c r="AJ41" s="24"/>
-      <c r="AR41" s="24"/>
-    </row>
-    <row r="42" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
-      <c r="AF42" s="24"/>
-      <c r="AG42" s="24"/>
-      <c r="AH42" s="24"/>
-      <c r="AI42" s="24"/>
-      <c r="AJ42" s="24"/>
-      <c r="AR42" s="24"/>
-    </row>
-    <row r="43" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="23"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
-      <c r="S43" s="27"/>
-      <c r="T43" s="27"/>
-      <c r="U43" s="27"/>
-      <c r="V43" s="28"/>
-      <c r="AF43" s="24"/>
-      <c r="AG43" s="24"/>
-      <c r="AH43" s="24"/>
-      <c r="AI43" s="24"/>
-      <c r="AJ43" s="24"/>
-      <c r="AR43" s="24"/>
-    </row>
-    <row r="44" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="27"/>
-      <c r="P44" s="27"/>
-      <c r="S44" s="27"/>
-      <c r="T44" s="27"/>
-      <c r="U44" s="27"/>
-      <c r="V44" s="28"/>
-      <c r="AF44" s="24"/>
-      <c r="AG44" s="24"/>
-      <c r="AH44" s="24"/>
-      <c r="AI44" s="24"/>
-      <c r="AJ44" s="24"/>
-      <c r="AR44" s="24"/>
-    </row>
-    <row r="45" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="27"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="27"/>
-      <c r="P45" s="27"/>
-      <c r="S45" s="27"/>
-      <c r="T45" s="27"/>
-      <c r="U45" s="27"/>
-      <c r="V45" s="28"/>
-      <c r="AF45" s="24"/>
-      <c r="AG45" s="24"/>
-      <c r="AH45" s="24"/>
-      <c r="AI45" s="24"/>
-      <c r="AJ45" s="24"/>
-      <c r="AR45" s="24"/>
-    </row>
-    <row r="46" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="23"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="27"/>
-      <c r="S46" s="27"/>
-      <c r="T46" s="27"/>
-      <c r="U46" s="27"/>
-      <c r="V46" s="28"/>
-      <c r="AF46" s="24"/>
-      <c r="AG46" s="24"/>
-      <c r="AH46" s="24"/>
-      <c r="AI46" s="24"/>
-      <c r="AJ46" s="24"/>
-      <c r="AR46" s="24"/>
-    </row>
-    <row r="47" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="23"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
-      <c r="P47" s="27"/>
-      <c r="S47" s="27"/>
-      <c r="T47" s="27"/>
-      <c r="U47" s="27"/>
-      <c r="V47" s="28"/>
-      <c r="AF47" s="24"/>
-      <c r="AG47" s="24"/>
-      <c r="AH47" s="24"/>
-      <c r="AI47" s="24"/>
-      <c r="AJ47" s="24"/>
-      <c r="AR47" s="24"/>
-    </row>
-    <row r="48" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="23"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="27"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="27"/>
-      <c r="P48" s="27"/>
-      <c r="S48" s="27"/>
-      <c r="T48" s="27"/>
-      <c r="U48" s="27"/>
-      <c r="V48" s="28"/>
-      <c r="AF48" s="24"/>
-      <c r="AG48" s="24"/>
-      <c r="AH48" s="24"/>
-      <c r="AI48" s="24"/>
-      <c r="AJ48" s="24"/>
-      <c r="AR48" s="24"/>
-    </row>
-    <row r="49" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="23"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="27"/>
-      <c r="S49" s="27"/>
-      <c r="T49" s="27"/>
-      <c r="U49" s="27"/>
-      <c r="V49" s="28"/>
-      <c r="AF49" s="24"/>
-      <c r="AG49" s="24"/>
-      <c r="AH49" s="24"/>
-      <c r="AI49" s="24"/>
-      <c r="AJ49" s="24"/>
-      <c r="AR49" s="24"/>
-    </row>
-    <row r="50" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="23"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="27"/>
-      <c r="S50" s="27"/>
-      <c r="T50" s="27"/>
-      <c r="U50" s="27"/>
-      <c r="V50" s="28"/>
-      <c r="AF50" s="24"/>
-      <c r="AG50" s="24"/>
-      <c r="AH50" s="24"/>
-      <c r="AI50" s="24"/>
-      <c r="AJ50" s="24"/>
-      <c r="AR50" s="24"/>
-    </row>
-    <row r="51" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="23"/>
-      <c r="M51" s="27"/>
-      <c r="S51" s="27"/>
-      <c r="T51" s="27"/>
-      <c r="U51" s="27"/>
-      <c r="AF51" s="24"/>
-      <c r="AG51" s="24"/>
-      <c r="AH51" s="24"/>
-      <c r="AI51" s="24"/>
-      <c r="AJ51" s="24"/>
-      <c r="AR51" s="24"/>
-    </row>
-    <row r="52" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
-      <c r="M52" s="27"/>
-      <c r="S52" s="27"/>
-      <c r="T52" s="27"/>
-      <c r="U52" s="27"/>
-      <c r="AF52" s="24"/>
-      <c r="AG52" s="24"/>
-      <c r="AH52" s="24"/>
-      <c r="AI52" s="24"/>
-      <c r="AJ52" s="24"/>
-      <c r="AR52" s="24"/>
-    </row>
-    <row r="53" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
-      <c r="M53" s="27"/>
-      <c r="S53" s="27"/>
-      <c r="T53" s="27"/>
-      <c r="U53" s="27"/>
-      <c r="AF53" s="24"/>
-      <c r="AG53" s="24"/>
-      <c r="AH53" s="24"/>
-      <c r="AI53" s="24"/>
-      <c r="AJ53" s="24"/>
-      <c r="AR53" s="24"/>
-    </row>
-    <row r="54" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="23"/>
-      <c r="M54" s="27"/>
-      <c r="S54" s="27"/>
-      <c r="T54" s="27"/>
-      <c r="U54" s="27"/>
-      <c r="AF54" s="24"/>
-      <c r="AG54" s="24"/>
-      <c r="AH54" s="24"/>
-      <c r="AI54" s="24"/>
-      <c r="AJ54" s="24"/>
-      <c r="AR54" s="24"/>
-    </row>
-    <row r="55" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="23"/>
-      <c r="M55" s="27"/>
-      <c r="S55" s="27"/>
-      <c r="T55" s="27"/>
-      <c r="U55" s="27"/>
-      <c r="AF55" s="24"/>
-      <c r="AG55" s="24"/>
-      <c r="AH55" s="24"/>
-      <c r="AI55" s="24"/>
-      <c r="AJ55" s="24"/>
-      <c r="AR55" s="24"/>
-    </row>
-    <row r="56" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="23"/>
-      <c r="M56" s="27"/>
-      <c r="S56" s="27"/>
-      <c r="T56" s="27"/>
-      <c r="U56" s="27"/>
-      <c r="AF56" s="24"/>
-      <c r="AG56" s="24"/>
-      <c r="AH56" s="24"/>
-      <c r="AI56" s="24"/>
-      <c r="AJ56" s="24"/>
-      <c r="AR56" s="24"/>
-    </row>
-    <row r="57" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="23"/>
-      <c r="M57" s="27"/>
-      <c r="S57" s="27"/>
-      <c r="T57" s="27"/>
-      <c r="U57" s="27"/>
-      <c r="AF57" s="24"/>
-      <c r="AG57" s="24"/>
-      <c r="AH57" s="24"/>
-      <c r="AI57" s="24"/>
-      <c r="AJ57" s="24"/>
-      <c r="AR57" s="24"/>
-    </row>
-    <row r="58" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="23"/>
-      <c r="M58" s="27"/>
-      <c r="S58" s="27"/>
-      <c r="T58" s="27"/>
-      <c r="U58" s="27"/>
-      <c r="AF58" s="24"/>
-      <c r="AG58" s="24"/>
-      <c r="AH58" s="24"/>
-      <c r="AI58" s="24"/>
-      <c r="AJ58" s="24"/>
-      <c r="AR58" s="24"/>
-    </row>
-    <row r="59" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="23"/>
-      <c r="AF59" s="24"/>
-      <c r="AG59" s="24"/>
-      <c r="AH59" s="24"/>
-      <c r="AI59" s="24"/>
-      <c r="AJ59" s="24"/>
-      <c r="AR59" s="24"/>
-    </row>
-    <row r="60" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="23"/>
-      <c r="AF60" s="24"/>
-      <c r="AG60" s="24"/>
-      <c r="AH60" s="24"/>
-      <c r="AI60" s="24"/>
-      <c r="AJ60" s="24"/>
-      <c r="AR60" s="24"/>
-    </row>
-    <row r="61" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="23"/>
-      <c r="AF61" s="24"/>
-      <c r="AG61" s="24"/>
-      <c r="AH61" s="24"/>
-      <c r="AI61" s="24"/>
-      <c r="AJ61" s="24"/>
-      <c r="AR61" s="24"/>
-    </row>
-    <row r="62" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="23"/>
-      <c r="AF62" s="24"/>
-      <c r="AG62" s="24"/>
-      <c r="AH62" s="24"/>
-      <c r="AI62" s="24"/>
-      <c r="AJ62" s="24"/>
-      <c r="AR62" s="24"/>
-    </row>
-    <row r="63" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="23"/>
-      <c r="AF63" s="24"/>
-      <c r="AG63" s="24"/>
-      <c r="AH63" s="24"/>
-      <c r="AI63" s="24"/>
-      <c r="AJ63" s="24"/>
-      <c r="AR63" s="24"/>
-    </row>
-    <row r="64" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="23"/>
-      <c r="AF64" s="24"/>
-      <c r="AG64" s="24"/>
-      <c r="AH64" s="24"/>
-      <c r="AI64" s="24"/>
-      <c r="AJ64" s="24"/>
-      <c r="AR64" s="24"/>
-    </row>
-    <row r="65" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="23"/>
-      <c r="AF65" s="24"/>
-      <c r="AG65" s="24"/>
-      <c r="AH65" s="24"/>
-      <c r="AI65" s="24"/>
-      <c r="AJ65" s="24"/>
-      <c r="AR65" s="24"/>
-    </row>
-    <row r="66" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="23"/>
-      <c r="AF66" s="24"/>
-      <c r="AG66" s="24"/>
-      <c r="AH66" s="24"/>
-      <c r="AI66" s="24"/>
-      <c r="AJ66" s="24"/>
-      <c r="AR66" s="24"/>
-    </row>
-    <row r="67" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="23"/>
-      <c r="AF67" s="24"/>
-      <c r="AG67" s="24"/>
-      <c r="AH67" s="24"/>
-      <c r="AI67" s="24"/>
-      <c r="AJ67" s="24"/>
-      <c r="AR67" s="24"/>
-    </row>
-    <row r="68" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="23"/>
-      <c r="AF68" s="24"/>
-      <c r="AG68" s="24"/>
-      <c r="AH68" s="24"/>
-      <c r="AI68" s="24"/>
-      <c r="AJ68" s="24"/>
-      <c r="AR68" s="24"/>
-    </row>
-    <row r="69" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="23"/>
-      <c r="AF69" s="24"/>
-      <c r="AG69" s="24"/>
-      <c r="AH69" s="24"/>
-      <c r="AI69" s="24"/>
-      <c r="AJ69" s="24"/>
-      <c r="AR69" s="24"/>
-    </row>
-    <row r="70" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="23"/>
-      <c r="AF70" s="24"/>
-      <c r="AG70" s="24"/>
-      <c r="AH70" s="24"/>
-      <c r="AI70" s="24"/>
-      <c r="AJ70" s="24"/>
-      <c r="AR70" s="24"/>
-    </row>
-    <row r="71" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="23"/>
-      <c r="AF71" s="24"/>
-      <c r="AG71" s="24"/>
-      <c r="AH71" s="24"/>
-      <c r="AI71" s="24"/>
-      <c r="AJ71" s="24"/>
-      <c r="AR71" s="24"/>
-    </row>
-    <row r="72" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="23"/>
-      <c r="AF72" s="24"/>
-      <c r="AG72" s="24"/>
-      <c r="AH72" s="24"/>
-      <c r="AI72" s="24"/>
-      <c r="AJ72" s="24"/>
-      <c r="AR72" s="24"/>
-    </row>
-    <row r="73" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="23"/>
-      <c r="AF73" s="24"/>
-      <c r="AG73" s="24"/>
-      <c r="AH73" s="24"/>
-      <c r="AI73" s="24"/>
-      <c r="AJ73" s="24"/>
-      <c r="AR73" s="24"/>
-    </row>
-    <row r="74" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="23"/>
-      <c r="AF74" s="24"/>
-      <c r="AG74" s="24"/>
-      <c r="AH74" s="24"/>
-      <c r="AI74" s="24"/>
-      <c r="AJ74" s="24"/>
-      <c r="AR74" s="24"/>
-    </row>
-    <row r="193" spans="23:31" x14ac:dyDescent="0.3">
-      <c r="W193" s="20">
-        <v>-1</v>
-      </c>
-      <c r="X193" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Y193" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Z193" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AA193" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AB193" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AC193" s="20">
+      <c r="AF199">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="200" spans="24:32" x14ac:dyDescent="0.25">
+      <c r="X200">
+        <v>-1</v>
+      </c>
+      <c r="Y200">
+        <v>-1</v>
+      </c>
+      <c r="Z200">
+        <v>-1</v>
+      </c>
+      <c r="AA200">
+        <v>-1</v>
+      </c>
+      <c r="AB200">
+        <v>-1</v>
+      </c>
+      <c r="AC200">
+        <v>-1</v>
+      </c>
+      <c r="AD200">
         <v>0.2</v>
       </c>
-      <c r="AD193" s="20">
+      <c r="AE200">
         <v>0.2</v>
       </c>
-      <c r="AE193" s="20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="194" spans="23:31" x14ac:dyDescent="0.3">
-      <c r="W194" s="20">
-        <v>-1</v>
-      </c>
-      <c r="X194" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Y194" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Z194" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AA194" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AB194" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AC194" s="20">
+      <c r="AF200">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="201" spans="24:32" x14ac:dyDescent="0.25">
+      <c r="X201">
+        <v>-1</v>
+      </c>
+      <c r="Y201">
+        <v>-1</v>
+      </c>
+      <c r="Z201">
+        <v>-1</v>
+      </c>
+      <c r="AA201">
+        <v>-1</v>
+      </c>
+      <c r="AB201">
+        <v>-1</v>
+      </c>
+      <c r="AC201">
+        <v>-1</v>
+      </c>
+      <c r="AD201">
         <v>0.2</v>
       </c>
-      <c r="AD194" s="20">
+      <c r="AE201">
         <v>0.2</v>
       </c>
-      <c r="AE194" s="20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="195" spans="23:31" x14ac:dyDescent="0.3">
-      <c r="W195" s="20">
-        <v>-1</v>
-      </c>
-      <c r="X195" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Y195" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Z195" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AA195" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AB195" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AC195" s="20">
+      <c r="AF201">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="202" spans="24:32" x14ac:dyDescent="0.25">
+      <c r="X202">
+        <v>-1</v>
+      </c>
+      <c r="Y202">
+        <v>-1</v>
+      </c>
+      <c r="Z202">
+        <v>-1</v>
+      </c>
+      <c r="AA202">
+        <v>-1</v>
+      </c>
+      <c r="AB202">
+        <v>-1</v>
+      </c>
+      <c r="AC202">
+        <v>-1</v>
+      </c>
+      <c r="AD202">
         <v>0.2</v>
       </c>
-      <c r="AD195" s="20">
+      <c r="AE202">
         <v>0.2</v>
       </c>
-      <c r="AE195" s="20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="196" spans="23:31" x14ac:dyDescent="0.3">
-      <c r="W196" s="20">
-        <v>-1</v>
-      </c>
-      <c r="X196" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Y196" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Z196" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AA196" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AB196" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AC196" s="20">
+      <c r="AF202">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="203" spans="24:32" x14ac:dyDescent="0.25">
+      <c r="X203">
+        <v>-1</v>
+      </c>
+      <c r="Y203">
+        <v>-1</v>
+      </c>
+      <c r="Z203">
+        <v>-1</v>
+      </c>
+      <c r="AA203">
+        <v>-1</v>
+      </c>
+      <c r="AB203">
+        <v>-1</v>
+      </c>
+      <c r="AC203">
+        <v>-1</v>
+      </c>
+      <c r="AD203">
         <v>0.2</v>
       </c>
-      <c r="AD196" s="20">
+      <c r="AE203">
         <v>0.2</v>
       </c>
-      <c r="AE196" s="20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="197" spans="23:31" x14ac:dyDescent="0.3">
-      <c r="W197" s="20">
-        <v>-1</v>
-      </c>
-      <c r="X197" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Y197" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Z197" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AA197" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AB197" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AC197" s="20">
+      <c r="AF203">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="204" spans="24:32" x14ac:dyDescent="0.25">
+      <c r="X204">
+        <v>-1</v>
+      </c>
+      <c r="Y204">
+        <v>-1</v>
+      </c>
+      <c r="Z204">
+        <v>-1</v>
+      </c>
+      <c r="AA204">
+        <v>-1</v>
+      </c>
+      <c r="AB204">
+        <v>-1</v>
+      </c>
+      <c r="AC204">
+        <v>-1</v>
+      </c>
+      <c r="AD204">
         <v>0.2</v>
       </c>
-      <c r="AD197" s="20">
+      <c r="AE204">
         <v>0.2</v>
       </c>
-      <c r="AE197" s="20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="198" spans="23:31" x14ac:dyDescent="0.3">
-      <c r="W198" s="20">
-        <v>-1</v>
-      </c>
-      <c r="X198" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Y198" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Z198" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AA198" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AB198" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AC198" s="20">
+      <c r="AF204">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="205" spans="24:32" x14ac:dyDescent="0.25">
+      <c r="X205">
+        <v>-1</v>
+      </c>
+      <c r="Y205">
+        <v>-1</v>
+      </c>
+      <c r="Z205">
+        <v>-1</v>
+      </c>
+      <c r="AA205">
+        <v>-1</v>
+      </c>
+      <c r="AB205">
+        <v>-1</v>
+      </c>
+      <c r="AC205">
+        <v>-1</v>
+      </c>
+      <c r="AD205">
         <v>0.2</v>
       </c>
-      <c r="AD198" s="20">
+      <c r="AE205">
         <v>0.2</v>
       </c>
-      <c r="AE198" s="20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="199" spans="23:31" x14ac:dyDescent="0.3">
-      <c r="W199" s="20">
-        <v>-1</v>
-      </c>
-      <c r="X199" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Y199" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Z199" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AA199" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AB199" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AC199" s="20">
+      <c r="AF205">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="206" spans="24:32" x14ac:dyDescent="0.25">
+      <c r="X206">
+        <v>-1</v>
+      </c>
+      <c r="Y206">
+        <v>-1</v>
+      </c>
+      <c r="Z206">
+        <v>-1</v>
+      </c>
+      <c r="AA206">
+        <v>-1</v>
+      </c>
+      <c r="AB206">
+        <v>-1</v>
+      </c>
+      <c r="AC206">
+        <v>-1</v>
+      </c>
+      <c r="AD206">
         <v>0.2</v>
       </c>
-      <c r="AD199" s="20">
+      <c r="AE206">
         <v>0.2</v>
       </c>
-      <c r="AE199" s="20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="200" spans="23:31" x14ac:dyDescent="0.3">
-      <c r="W200" s="20">
-        <v>-1</v>
-      </c>
-      <c r="X200" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Y200" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Z200" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AA200" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AB200" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AC200" s="20">
+      <c r="AF206">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="207" spans="24:32" x14ac:dyDescent="0.25">
+      <c r="X207">
+        <v>-1</v>
+      </c>
+      <c r="Y207">
+        <v>-1</v>
+      </c>
+      <c r="Z207">
+        <v>-1</v>
+      </c>
+      <c r="AA207">
+        <v>-1</v>
+      </c>
+      <c r="AB207">
+        <v>-1</v>
+      </c>
+      <c r="AC207">
+        <v>-1</v>
+      </c>
+      <c r="AD207">
         <v>0.2</v>
       </c>
-      <c r="AD200" s="20">
+      <c r="AE207">
         <v>0.2</v>
       </c>
-      <c r="AE200" s="20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="201" spans="23:31" x14ac:dyDescent="0.3">
-      <c r="W201" s="20">
-        <v>-1</v>
-      </c>
-      <c r="X201" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Y201" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Z201" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AA201" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AB201" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AC201" s="20">
+      <c r="AF207">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="208" spans="24:32" x14ac:dyDescent="0.25">
+      <c r="X208">
+        <v>-1</v>
+      </c>
+      <c r="Y208">
+        <v>-1</v>
+      </c>
+      <c r="Z208">
+        <v>-1</v>
+      </c>
+      <c r="AA208">
+        <v>-1</v>
+      </c>
+      <c r="AB208">
+        <v>-1</v>
+      </c>
+      <c r="AC208">
+        <v>-1</v>
+      </c>
+      <c r="AD208">
         <v>0.2</v>
       </c>
-      <c r="AD201" s="20">
+      <c r="AE208">
         <v>0.2</v>
       </c>
-      <c r="AE201" s="20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="202" spans="23:31" x14ac:dyDescent="0.3">
-      <c r="W202" s="20">
-        <v>-1</v>
-      </c>
-      <c r="X202" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Y202" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Z202" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AA202" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AB202" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AC202" s="20">
+      <c r="AF208">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="209" spans="24:32" x14ac:dyDescent="0.25">
+      <c r="X209">
+        <v>-1</v>
+      </c>
+      <c r="Y209">
+        <v>-1</v>
+      </c>
+      <c r="Z209">
+        <v>-1</v>
+      </c>
+      <c r="AA209">
+        <v>-1</v>
+      </c>
+      <c r="AB209">
+        <v>-1</v>
+      </c>
+      <c r="AC209">
+        <v>-1</v>
+      </c>
+      <c r="AD209">
         <v>0.2</v>
       </c>
-      <c r="AD202" s="20">
+      <c r="AE209">
         <v>0.2</v>
       </c>
-      <c r="AE202" s="20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="203" spans="23:31" x14ac:dyDescent="0.3">
-      <c r="W203" s="20">
-        <v>-1</v>
-      </c>
-      <c r="X203" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Y203" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Z203" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AA203" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AB203" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AC203" s="20">
+      <c r="AF209">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="210" spans="24:32" x14ac:dyDescent="0.25">
+      <c r="X210">
+        <v>-1</v>
+      </c>
+      <c r="Y210">
+        <v>-1</v>
+      </c>
+      <c r="Z210">
+        <v>-1</v>
+      </c>
+      <c r="AA210">
+        <v>-1</v>
+      </c>
+      <c r="AB210">
+        <v>-1</v>
+      </c>
+      <c r="AC210">
+        <v>-1</v>
+      </c>
+      <c r="AD210">
         <v>0.2</v>
       </c>
-      <c r="AD203" s="20">
+      <c r="AE210">
         <v>0.2</v>
       </c>
-      <c r="AE203" s="20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="204" spans="23:31" x14ac:dyDescent="0.3">
-      <c r="W204" s="20">
-        <v>-1</v>
-      </c>
-      <c r="X204" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Y204" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Z204" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AA204" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AB204" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AC204" s="20">
+      <c r="AF210">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="211" spans="24:32" x14ac:dyDescent="0.25">
+      <c r="X211">
+        <v>-1</v>
+      </c>
+      <c r="Y211">
+        <v>-1</v>
+      </c>
+      <c r="Z211">
+        <v>-1</v>
+      </c>
+      <c r="AA211">
+        <v>-1</v>
+      </c>
+      <c r="AB211">
+        <v>-1</v>
+      </c>
+      <c r="AC211">
+        <v>-1</v>
+      </c>
+      <c r="AD211">
         <v>0.2</v>
       </c>
-      <c r="AD204" s="20">
+      <c r="AE211">
         <v>0.2</v>
       </c>
-      <c r="AE204" s="20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="205" spans="23:31" x14ac:dyDescent="0.3">
-      <c r="W205" s="20">
-        <v>-1</v>
-      </c>
-      <c r="X205" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Y205" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Z205" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AA205" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AB205" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AC205" s="20">
+      <c r="AF211">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="212" spans="24:32" x14ac:dyDescent="0.25">
+      <c r="X212">
+        <v>-1</v>
+      </c>
+      <c r="Y212">
+        <v>-1</v>
+      </c>
+      <c r="Z212">
+        <v>-1</v>
+      </c>
+      <c r="AA212">
+        <v>-1</v>
+      </c>
+      <c r="AB212">
+        <v>-1</v>
+      </c>
+      <c r="AC212">
+        <v>-1</v>
+      </c>
+      <c r="AD212">
         <v>0.2</v>
       </c>
-      <c r="AD205" s="20">
+      <c r="AE212">
         <v>0.2</v>
       </c>
-      <c r="AE205" s="20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="206" spans="23:31" x14ac:dyDescent="0.3">
-      <c r="W206" s="20">
-        <v>-1</v>
-      </c>
-      <c r="X206" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Y206" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Z206" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AA206" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AB206" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AC206" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="AD206" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="AE206" s="20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="207" spans="23:31" x14ac:dyDescent="0.3">
-      <c r="W207" s="20">
-        <v>-1</v>
-      </c>
-      <c r="X207" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Y207" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Z207" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AA207" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AB207" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AC207" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="AD207" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="AE207" s="20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="208" spans="23:31" x14ac:dyDescent="0.3">
-      <c r="W208" s="20">
-        <v>-1</v>
-      </c>
-      <c r="X208" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Y208" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Z208" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AA208" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AB208" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AC208" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="AD208" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="AE208" s="20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="209" spans="23:31" x14ac:dyDescent="0.3">
-      <c r="W209" s="20">
-        <v>-1</v>
-      </c>
-      <c r="X209" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Y209" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Z209" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AA209" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AB209" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AC209" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="AD209" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="AE209" s="20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="210" spans="23:31" x14ac:dyDescent="0.3">
-      <c r="W210" s="20">
-        <v>-1</v>
-      </c>
-      <c r="X210" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Y210" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Z210" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AA210" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AB210" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AC210" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="AD210" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="AE210" s="20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="211" spans="23:31" x14ac:dyDescent="0.3">
-      <c r="W211" s="20">
-        <v>-1</v>
-      </c>
-      <c r="X211" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Y211" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Z211" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AA211" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AB211" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AC211" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="AD211" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="AE211" s="20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="212" spans="23:31" x14ac:dyDescent="0.3">
-      <c r="W212" s="20">
-        <v>-1</v>
-      </c>
-      <c r="X212" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Y212" s="20">
-        <v>-1</v>
-      </c>
-      <c r="Z212" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AA212" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AB212" s="20">
-        <v>-1</v>
-      </c>
-      <c r="AC212" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="AD212" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="AE212" s="20">
+      <c r="AF212">
         <v>-1</v>
       </c>
     </row>
@@ -4555,32 +4811,32 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2">
         <v>0.8</v>
@@ -4603,34 +4859,34 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8DBC886-8791-4ED3-9385-2D5CED2F34A2}">
   <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4642,9 +4898,9 @@
         <v>11920</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4654,6 +4910,20 @@
       </c>
       <c r="D3">
         <v>15400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.65</v>
+      </c>
+      <c r="D4">
+        <v>12355.2</v>
       </c>
     </row>
   </sheetData>
@@ -4666,20 +4936,20 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -4690,36 +4960,36 @@
         <v>4</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="L1" s="9" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B2" s="1">
         <v>38487</v>
@@ -4755,9 +5025,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B3" s="1">
         <v>38487</v>
@@ -4808,99 +5078,99 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="28" width="15.44140625" customWidth="1"/>
-    <col min="32" max="33" width="8.109375" customWidth="1"/>
-    <col min="34" max="34" width="12.44140625" customWidth="1"/>
+    <col min="1" max="28" width="15.42578125" customWidth="1"/>
+    <col min="32" max="33" width="8.140625" customWidth="1"/>
+    <col min="34" max="34" width="12.42578125" customWidth="1"/>
     <col min="35" max="35" width="18" customWidth="1"/>
-    <col min="36" max="36" width="17.5546875" customWidth="1"/>
+    <col min="36" max="36" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" t="s">
         <v>174</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>175</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>176</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>177</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>178</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>179</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>180</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>181</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>182</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>183</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>184</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>185</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>186</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>187</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>188</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>189</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>190</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>191</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>192</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>193</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>194</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>195</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>196</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>197</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>198</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>199</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>200</v>
       </c>
       <c r="AC1" s="10" t="s">
         <v>44</v>
@@ -4927,22 +5197,22 @@
         <v>2</v>
       </c>
       <c r="AK1" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AL1" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN1" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="AM1" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN1" s="10" t="s">
+      <c r="AO1" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="AO1" s="10" t="s">
+      <c r="AP1" s="10" t="s">
         <v>137</v>
-      </c>
-      <c r="AP1" s="10" t="s">
-        <v>138</v>
       </c>
       <c r="AQ1" s="10" t="s">
         <v>48</v>
@@ -4951,27 +5221,27 @@
         <v>49</v>
       </c>
       <c r="AS1" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT1" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AT1" s="10" t="s">
+      <c r="AU1" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="AU1" s="10" t="s">
+      <c r="AV1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="AV1" s="10" t="s">
+      <c r="AW1" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="AW1" s="10" t="s">
+      <c r="AX1" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="AX1" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -5133,67 +5403,67 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="28.5546875" customWidth="1"/>
+    <col min="1" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" t="s">
         <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="2"/>
@@ -5204,6 +5474,96 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB28BFCE-56C1-4CA3-8C60-5B60D7029475}">
+  <sheetPr codeName="Sheet19"/>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>0.01</v>
+      </c>
+      <c r="D2">
+        <v>0.05</v>
+      </c>
+      <c r="E2" s="8">
+        <v>-100000</v>
+      </c>
+      <c r="F2" s="8">
+        <v>10000000000</v>
+      </c>
+      <c r="G2">
+        <v>0.02</v>
+      </c>
+      <c r="H2">
+        <v>1E-3</v>
+      </c>
+      <c r="I2">
+        <v>1000</v>
+      </c>
+      <c r="J2">
+        <v>0.5</v>
+      </c>
+      <c r="K2">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9600C260-045B-494F-96B8-C4B2D07CC3E3}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:L2"/>
@@ -5212,64 +5572,64 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="18"/>
+    <col min="1" max="1" width="14.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="18">
         <v>0.6</v>
@@ -5310,7 +5670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF917AE-03FC-4DE2-93E6-90C8E1B8BCEE}">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:O2"/>
@@ -5319,61 +5679,61 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1" t="s">
         <v>241</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>242</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>243</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>244</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>245</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>246</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>247</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>248</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>249</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>250</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>251</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>252</v>
       </c>
-      <c r="N1" t="s">
-        <v>253</v>
-      </c>
-      <c r="O1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -5432,12 +5792,12 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -5466,9 +5826,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -5509,17 +5869,17 @@
       <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" customWidth="1"/>
-    <col min="19" max="19" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
@@ -5534,13 +5894,13 @@
         <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G1" t="s">
         <v>29</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>30</v>
@@ -5585,10 +5945,10 @@
         <v>43</v>
       </c>
       <c r="W1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>25</v>
       </c>
@@ -5659,12 +6019,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C3">
         <v>42.18</v>
@@ -5730,19 +6090,19 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
     </row>
-    <row r="6" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
     </row>
-    <row r="11" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
     </row>
-    <row r="12" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
     </row>
-    <row r="13" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
     </row>
   </sheetData>
@@ -5762,16 +6122,16 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="4" width="17" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="13.5546875" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -5782,36 +6142,36 @@
         <v>1</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>213</v>
-      </c>
       <c r="I1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" t="s">
         <v>144</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>145</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>146</v>
       </c>
-      <c r="L1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B2" s="4">
         <v>38504</v>
@@ -5835,9 +6195,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B3" s="4">
         <v>38504</v>
@@ -5877,28 +6237,28 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" t="s">
         <v>226</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>227</v>
-      </c>
-      <c r="D1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>229</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -5924,13 +6284,13 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -5953,22 +6313,22 @@
         <v>58</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -6003,12 +6363,12 @@
         <v>2.4499999999999999E-3</v>
       </c>
       <c r="M2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3">
         <v>1.6</v>
@@ -6041,9 +6401,9 @@
         <v>2.4499999999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4">
         <v>1.6</v>
@@ -6076,9 +6436,9 @@
         <v>2.4499999999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>259</v>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="B5">
         <v>1.2</v>
@@ -6117,34 +6477,103 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>0</v>
+      <c r="B1" t="s">
+        <v>288</v>
       </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>289</v>
+      </c>
+      <c r="D1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>277</v>
+      </c>
+      <c r="K3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>279</v>
+      </c>
+      <c r="K4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>281</v>
+      </c>
+      <c r="K5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>284</v>
+      </c>
+      <c r="K8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>286</v>
+      </c>
+      <c r="K9" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6157,9 +6586,9 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -6167,16 +6596,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" t="s">
         <v>120</v>
-      </c>
-      <c r="F1" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -6193,14 +6622,14 @@
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -6209,21 +6638,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010086EABF47CD1113448A96A17F6C8D13F9" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="562d1dd5ad8dfb6d09dfa11834733c42">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5f42ec3-4ee2-45fc-8d77-288bf2f0f986" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7128e87dc4ae7544fa3e3576daab8407" ns2:_="">
     <xsd:import namespace="a5f42ec3-4ee2-45fc-8d77-288bf2f0f986"/>
@@ -6387,24 +6801,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB355063-4085-408A-B581-F3B4C870A3FF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{532DCAAA-3F51-4B5E-8815-DDBB9D55C2DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5088F4C1-76EA-4EB8-857C-42C0075C1F9C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6420,4 +6832,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{532DCAAA-3F51-4B5E-8815-DDBB9D55C2DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB355063-4085-408A-B581-F3B4C870A3FF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Example input/SoybeanInputs.xlsx
+++ b/Example input/SoybeanInputs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1A58C6-BD7E-4016-88D5-DF496F9D7804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AC97DF-B364-4AE5-988F-9734A859D58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="570" windowWidth="25920" windowHeight="13425" tabRatio="824" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2565" windowWidth="26475" windowHeight="11295" tabRatio="824" firstSheet="3" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="5" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="WaterMovParam" sheetId="22" r:id="rId17"/>
     <sheet name="MulchDecomp" sheetId="18" r:id="rId18"/>
     <sheet name="MulchGeo" sheetId="21" r:id="rId19"/>
+    <sheet name="Sheet1" sheetId="23" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="GridX">#REF!</definedName>
@@ -1459,7 +1460,8 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{805AD1FC-2209-4009-A12C-354884B60DC8}"/>
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
@@ -1766,7 +1768,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1787,6 +1789,7 @@
     <col min="14" max="14" width="14.140625" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -5478,8 +5481,8 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5540,7 +5543,7 @@
         <v>-100000</v>
       </c>
       <c r="F2" s="8">
-        <v>10000000000</v>
+        <v>1E-3</v>
       </c>
       <c r="G2">
         <v>0.02</v>
@@ -5860,6 +5863,18 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97106E43-F276-44E7-8ECC-7DD6287E7810}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
@@ -6481,7 +6496,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -6638,6 +6653,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010086EABF47CD1113448A96A17F6C8D13F9" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="562d1dd5ad8dfb6d09dfa11834733c42">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5f42ec3-4ee2-45fc-8d77-288bf2f0f986" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7128e87dc4ae7544fa3e3576daab8407" ns2:_="">
     <xsd:import namespace="a5f42ec3-4ee2-45fc-8d77-288bf2f0f986"/>
@@ -6801,22 +6831,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB355063-4085-408A-B581-F3B4C870A3FF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{532DCAAA-3F51-4B5E-8815-DDBB9D55C2DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5088F4C1-76EA-4EB8-857C-42C0075C1F9C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6832,21 +6864,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{532DCAAA-3F51-4B5E-8815-DDBB9D55C2DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB355063-4085-408A-B581-F3B4C870A3FF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>